--- a/data.xlsx
+++ b/data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>TankName</t>
   </si>
@@ -92,10 +92,22 @@
     <t>laser</t>
   </si>
   <si>
+    <t>simLeopard2a4_circles</t>
+  </si>
+  <si>
     <t>APDScircles</t>
   </si>
   <si>
+    <t>simPanther_circles</t>
+  </si>
+  <si>
     <t>APcircles</t>
+  </si>
+  <si>
+    <t>simJagdpanther_circles</t>
+  </si>
+  <si>
+    <t>simBkan_circles</t>
   </si>
 </sst>
 </file>
@@ -174,7 +186,7 @@
   <dimension ref="A1:K350"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="E28" activeCell="E28"/>
+      <selection sqref="B28" activeCell="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" customHeight="true" defaultRowHeight="15"/>
@@ -471,7 +483,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>1640</v>
@@ -480,7 +492,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>10</v>
@@ -492,7 +504,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>935</v>
@@ -501,7 +513,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>15</v>
@@ -513,7 +525,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>1000</v>
@@ -522,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>18</v>
@@ -534,7 +546,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>850</v>
@@ -543,7 +555,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>21</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1"/>
+    <workbookView activeTab="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1"/>
   </bookViews>
   <sheets>
     <sheet name="AP" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>TankName</t>
   </si>
@@ -98,7 +98,7 @@
     <t>-0.000, -0.411</t>
   </si>
   <si>
-    <t>2.865, 0.066</t>
+    <t>2.865, 0</t>
   </si>
   <si>
     <t>2.183, 0</t>
@@ -110,10 +110,76 @@
     <t>0.04, -0.183</t>
   </si>
   <si>
+    <t>germ_pzkpfw_IV_ausf_F2</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>0.006, -0.402</t>
+  </si>
+  <si>
+    <t>germ_sdkfz_234_2</t>
+  </si>
+  <si>
+    <t>835</t>
+  </si>
+  <si>
+    <t>0.011, -0.296</t>
+  </si>
+  <si>
+    <t>fr_lorraine_40t</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>0.324, -0.583</t>
+  </si>
+  <si>
+    <t>germ_pzkpfw_III_ausf_M</t>
+  </si>
+  <si>
+    <t>0.035, -0.323</t>
+  </si>
+  <si>
+    <t>germ_stuh_III_ausf_G</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>0.534, -0.588</t>
+  </si>
+  <si>
+    <t>germ_pz_IV_L70</t>
+  </si>
+  <si>
+    <t>0.560, -0.573</t>
+  </si>
+  <si>
+    <t>germ_panzerjager_tiger_P_ferdinand</t>
+  </si>
+  <si>
+    <t>-0.008, -0.171</t>
+  </si>
+  <si>
+    <t>2.949, 0</t>
+  </si>
+  <si>
+    <t>2.39, 0</t>
+  </si>
+  <si>
     <t>germ_leopard_2a4</t>
   </si>
   <si>
     <t>APDS</t>
+  </si>
+  <si>
+    <t>0.533, 0.73</t>
+  </si>
+  <si>
+    <t>0.339, -0.053</t>
   </si>
   <si>
     <t>ussr_2s25</t>
@@ -122,16 +188,25 @@
     <t>0.724,-0.506</t>
   </si>
   <si>
+    <t>0.410, 0</t>
+  </si>
+  <si>
     <t>uk_challenger_2</t>
   </si>
   <si>
-    <t>0.962,0.716</t>
+    <t>0.962, 0.729</t>
+  </si>
+  <si>
+    <t>0.319, 0</t>
   </si>
   <si>
     <t>uk_chieftain_mk_10</t>
   </si>
   <si>
     <t>0.870, 0.573</t>
+  </si>
+  <si>
+    <t>0.407, 0</t>
   </si>
   <si>
     <t>uk_challenger_2_tes</t>
@@ -146,7 +221,34 @@
     <t>0.319, -0</t>
   </si>
   <si>
-    <t>ussr_</t>
+    <t>germ_leopard_2a6</t>
+  </si>
+  <si>
+    <t>0.777, 0.750</t>
+  </si>
+  <si>
+    <t>0.358, -0.049</t>
+  </si>
+  <si>
+    <t>germ_leopard_2a5</t>
+  </si>
+  <si>
+    <t>uk_centurion_mk_3</t>
+  </si>
+  <si>
+    <t>0.824, 0.656</t>
+  </si>
+  <si>
+    <t>0.364, 0.002</t>
+  </si>
+  <si>
+    <t>uk_fv4202</t>
+  </si>
+  <si>
+    <t>1.028, 0.682</t>
+  </si>
+  <si>
+    <t>0.417, 0</t>
   </si>
   <si>
     <t>laser</t>
@@ -171,7 +273,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,18 +282,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -280,11 +376,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -329,19 +465,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="6" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="6" fillId="0" fontId="1" numFmtId="2" xfId="0">
       <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -349,8 +525,28 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="6" fillId="0" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
@@ -366,8 +562,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="F15" activeCell="F15"/>
+    <sheetView workbookViewId="0" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
+      <selection sqref="A15" activeCell="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" customHeight="true" defaultRowHeight="15"/>
@@ -445,10 +641,6 @@
       <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
@@ -477,12 +669,9 @@
       <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
@@ -511,7 +700,7 @@
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="9"/>
@@ -551,7 +740,7 @@
       <c r="E5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="9"/>
@@ -599,9 +788,9 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11" t="s">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10" t="s">
         <v>28</v>
       </c>
       <c r="M6" s="7"/>
@@ -620,30 +809,24 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="11" t="n">
         <v>800</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="11" t="n">
         <v>801</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
       <c r="M7" s="7"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -660,12 +843,24 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="A8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="G8" s="9"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -688,12 +883,24 @@
       <c r="Z8" s="8"/>
     </row>
     <row r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -716,12 +923,24 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -744,12 +963,24 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -772,12 +1003,24 @@
       <c r="Z11" s="8"/>
     </row>
     <row r="12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -800,12 +1043,24 @@
       <c r="Z12" s="8"/>
     </row>
     <row r="13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="A13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -828,18 +1083,34 @@
       <c r="Z13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="L14" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
@@ -28475,10 +28746,10 @@
     <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1000"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="D14" activeCell="D14"/>
+    <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
+      <selection sqref="H23" activeCell="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" customHeight="true" defaultRowHeight="15"/>
@@ -28514,1906 +28785,1968 @@
       <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="3" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="14" t="s">
         <v>6</v>
       </c>
+      <c r="M1" s="18"/>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>31</v>
+      <c r="A2" s="11" t="s">
+        <v>51</v>
       </c>
-      <c r="B2" s="14" t="n">
+      <c r="B2" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="C2" s="14" t="n">
+      <c r="C2" s="11" t="n">
         <v>1640</v>
       </c>
-      <c r="D2" s="14" t="n">
+      <c r="D2" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>32</v>
+      <c r="E2" s="19" t="s">
+        <v>52</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="F2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="L2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="18"/>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>33</v>
+      <c r="A3" s="11" t="s">
+        <v>55</v>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="11" t="n">
         <v>1700</v>
       </c>
-      <c r="D3" s="14" t="n">
+      <c r="D3" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>32</v>
+      <c r="E3" s="19" t="s">
+        <v>52</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>34</v>
+      <c r="F3" s="11" t="s">
+        <v>56</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="11"/>
+      <c r="L3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="18"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="11" t="n">
         <v>1650</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>32</v>
+      <c r="E4" s="19" t="s">
+        <v>52</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>36</v>
+      <c r="F4" s="11" t="s">
+        <v>59</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="11"/>
+      <c r="L4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="18"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="11" t="n">
         <v>1535</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>32</v>
+      <c r="E5" s="19" t="s">
+        <v>52</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>38</v>
+      <c r="F5" s="20" t="s">
+        <v>62</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="11"/>
+      <c r="L5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="18"/>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>39</v>
+      <c r="A6" s="11" t="s">
+        <v>64</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>40</v>
+      <c r="C6" s="11" t="s">
+        <v>65</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>32</v>
+      <c r="E6" s="19" t="s">
+        <v>52</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>41</v>
+      <c r="F6" s="21" t="s">
+        <v>66</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11" t="s">
-        <v>42</v>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21" t="s">
+        <v>67</v>
       </c>
+      <c r="M6" s="18"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
+      <c r="A7" s="11" t="s">
+        <v>68</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15" t="s">
-        <v>32</v>
+      <c r="B7" s="11" t="n">
+        <v>1000</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="11" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="L7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="18"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15" t="s">
-        <v>32</v>
+      <c r="B8" s="11" t="n">
+        <v>1000</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="11" t="n">
+        <v>1670</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="L8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="18"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15" t="s">
-        <v>32</v>
+      <c r="B9" s="11" t="n">
+        <v>800</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="11" t="n">
+        <v>1430</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="L9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="18"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15" t="s">
-        <v>32</v>
+      <c r="B10" s="11" t="n">
+        <v>800</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="C10" s="11" t="n">
+        <v>1430</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="L10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="18"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18">
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" customHeight="true" ht="15.75">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" customHeight="true" ht="15.75">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" customHeight="true" ht="15.75">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" customHeight="true" ht="15.75">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" customHeight="true" ht="15.75">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" customHeight="true" ht="15.75">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" customHeight="true" ht="15.75">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" customHeight="true" ht="15.75">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" customHeight="true" ht="15.75">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" customHeight="true" ht="15.75">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" customHeight="true" ht="15.75">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" customHeight="true" ht="15.75">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" customHeight="true" ht="15.75">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" customHeight="true" ht="15.75">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" customHeight="true" ht="15.75">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" customHeight="true" ht="15.75">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" customHeight="true" ht="15.75">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" customHeight="true" ht="15.75">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" customHeight="true" ht="15.75">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" customHeight="true" ht="15.75">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" customHeight="true" ht="15.75">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" customHeight="true" ht="15.75">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" customHeight="true" ht="15.75">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" customHeight="true" ht="15.75">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" customHeight="true" ht="15.75">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" customHeight="true" ht="15.75">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" customHeight="true" ht="15.75">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" customHeight="true" ht="15.75">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
     </row>
     <row r="49" customHeight="true" ht="15.75">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" customHeight="true" ht="15.75">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" customHeight="true" ht="15.75">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" customHeight="true" ht="15.75">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" customHeight="true" ht="15.75">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" customHeight="true" ht="15.75">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" customHeight="true" ht="15.75">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" customHeight="true" ht="15.75">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" customHeight="true" ht="15.75">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" customHeight="true" ht="15.75">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" customHeight="true" ht="15.75">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" customHeight="true" ht="15.75">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" customHeight="true" ht="15.75">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
     </row>
     <row r="62" customHeight="true" ht="15.75">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" customHeight="true" ht="15.75">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" customHeight="true" ht="15.75">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" customHeight="true" ht="15.75">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
     </row>
     <row r="66" customHeight="true" ht="15.75">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
     </row>
     <row r="67" customHeight="true" ht="15.75">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" customHeight="true" ht="15.75">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" customHeight="true" ht="15.75">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
     </row>
     <row r="70" customHeight="true" ht="15.75">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
     </row>
     <row r="71" customHeight="true" ht="15.75">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
     </row>
     <row r="72" customHeight="true" ht="15.75">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" customHeight="true" ht="15.75">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
     </row>
     <row r="74" customHeight="true" ht="15.75">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" customHeight="true" ht="15.75">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
     </row>
     <row r="76" customHeight="true" ht="15.75">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
     </row>
     <row r="77" customHeight="true" ht="15.75">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
     </row>
     <row r="78" customHeight="true" ht="15.75">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
     </row>
     <row r="79" customHeight="true" ht="15.75">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
     </row>
     <row r="80" customHeight="true" ht="15.75">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
     </row>
     <row r="81" customHeight="true" ht="15.75">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
     </row>
     <row r="82" customHeight="true" ht="15.75">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
     </row>
     <row r="83" customHeight="true" ht="15.75">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
     </row>
     <row r="84" customHeight="true" ht="15.75">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
     </row>
     <row r="85" customHeight="true" ht="15.75">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
     </row>
     <row r="86" customHeight="true" ht="15.75">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" customHeight="true" ht="15.75">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
     </row>
     <row r="88" customHeight="true" ht="15.75">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
     </row>
     <row r="89" customHeight="true" ht="15.75">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
     </row>
     <row r="90" customHeight="true" ht="15.75">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
     </row>
     <row r="91" customHeight="true" ht="15.75">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
     </row>
     <row r="92" customHeight="true" ht="15.75">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
     </row>
     <row r="93" customHeight="true" ht="15.75">
-      <c r="A93" s="14"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
     </row>
     <row r="94" customHeight="true" ht="15.75">
-      <c r="A94" s="14"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
     </row>
     <row r="95" customHeight="true" ht="15.75">
-      <c r="A95" s="14"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
     </row>
     <row r="96" customHeight="true" ht="15.75">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
     </row>
     <row r="97" customHeight="true" ht="15.75">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
     </row>
     <row r="98" customHeight="true" ht="15.75">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
     </row>
     <row r="99" customHeight="true" ht="15.75">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
     </row>
     <row r="100" customHeight="true" ht="15.75">
-      <c r="A100" s="14"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
     </row>
     <row r="101" customHeight="true" ht="15.75">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
     </row>
     <row r="102" customHeight="true" ht="15.75">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
     </row>
     <row r="103" customHeight="true" ht="15.75">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
     </row>
     <row r="104" customHeight="true" ht="15.75">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
     </row>
     <row r="105" customHeight="true" ht="15.75">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
     </row>
     <row r="106" customHeight="true" ht="15.75">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
     </row>
     <row r="107" customHeight="true" ht="15.75">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
     </row>
     <row r="108" customHeight="true" ht="15.75">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
     </row>
     <row r="109" customHeight="true" ht="15.75">
-      <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
     </row>
     <row r="110" customHeight="true" ht="15.75">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
     </row>
     <row r="111" customHeight="true" ht="15.75">
-      <c r="A111" s="14"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
     </row>
     <row r="112" customHeight="true" ht="15.75">
-      <c r="A112" s="14"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
     </row>
     <row r="113" customHeight="true" ht="15.75">
-      <c r="A113" s="14"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
     </row>
     <row r="114" customHeight="true" ht="15.75">
-      <c r="A114" s="14"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
     </row>
     <row r="115" customHeight="true" ht="15.75">
-      <c r="A115" s="14"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
     </row>
     <row r="116" customHeight="true" ht="15.75">
-      <c r="A116" s="14"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
     </row>
     <row r="117" customHeight="true" ht="15.75">
-      <c r="A117" s="14"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
     </row>
     <row r="118" customHeight="true" ht="15.75">
-      <c r="A118" s="14"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
     </row>
     <row r="119" customHeight="true" ht="15.75">
-      <c r="A119" s="14"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
     </row>
     <row r="120" customHeight="true" ht="15.75">
-      <c r="A120" s="14"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
     </row>
     <row r="121" customHeight="true" ht="15.75">
-      <c r="A121" s="14"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
     </row>
     <row r="122" customHeight="true" ht="15.75">
-      <c r="A122" s="14"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
     </row>
     <row r="123" customHeight="true" ht="15.75">
-      <c r="A123" s="14"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
     </row>
     <row r="124" customHeight="true" ht="15.75">
-      <c r="A124" s="14"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
     </row>
     <row r="125" customHeight="true" ht="15.75">
-      <c r="A125" s="14"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
     </row>
     <row r="126" customHeight="true" ht="15.75">
-      <c r="A126" s="14"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
     </row>
     <row r="127" customHeight="true" ht="15.75">
-      <c r="A127" s="14"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
     </row>
     <row r="128" customHeight="true" ht="15.75">
-      <c r="A128" s="14"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
     </row>
     <row r="129" customHeight="true" ht="15.75">
-      <c r="A129" s="14"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
     </row>
     <row r="130" customHeight="true" ht="15.75">
-      <c r="A130" s="14"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
     </row>
     <row r="131" customHeight="true" ht="15.75">
-      <c r="A131" s="14"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
     </row>
     <row r="132" customHeight="true" ht="15.75">
-      <c r="A132" s="14"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
     </row>
     <row r="133" customHeight="true" ht="15.75">
-      <c r="A133" s="14"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
     </row>
     <row r="134" customHeight="true" ht="15.75">
-      <c r="A134" s="14"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
     </row>
     <row r="135" customHeight="true" ht="15.75">
-      <c r="A135" s="14"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
     </row>
     <row r="136" customHeight="true" ht="15.75">
-      <c r="A136" s="14"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
     </row>
     <row r="137" customHeight="true" ht="15.75">
-      <c r="A137" s="14"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
     </row>
     <row r="138" customHeight="true" ht="15.75">
-      <c r="A138" s="14"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
     </row>
     <row r="139" customHeight="true" ht="15.75">
-      <c r="A139" s="14"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
     </row>
     <row r="140" customHeight="true" ht="15.75">
-      <c r="A140" s="14"/>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
     </row>
     <row r="141" customHeight="true" ht="15.75">
-      <c r="A141" s="14"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
     </row>
     <row r="142" customHeight="true" ht="15.75">
-      <c r="A142" s="14"/>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
     </row>
     <row r="143" customHeight="true" ht="15.75">
-      <c r="A143" s="14"/>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
     </row>
     <row r="144" customHeight="true" ht="15.75">
-      <c r="A144" s="14"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
     </row>
     <row r="145" customHeight="true" ht="15.75">
-      <c r="A145" s="14"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
     </row>
     <row r="146" customHeight="true" ht="15.75">
-      <c r="A146" s="14"/>
-      <c r="B146" s="14"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
     </row>
     <row r="147" customHeight="true" ht="15.75">
-      <c r="A147" s="14"/>
-      <c r="B147" s="14"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
+      <c r="A147" s="11"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
     </row>
     <row r="148" customHeight="true" ht="15.75">
-      <c r="A148" s="14"/>
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
+      <c r="A148" s="11"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
     </row>
     <row r="149" customHeight="true" ht="15.75">
-      <c r="A149" s="14"/>
-      <c r="B149" s="14"/>
-      <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
+      <c r="A149" s="11"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
     </row>
     <row r="150" customHeight="true" ht="15.75">
-      <c r="A150" s="14"/>
-      <c r="B150" s="14"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
     </row>
     <row r="151" customHeight="true" ht="15.75">
-      <c r="A151" s="14"/>
-      <c r="B151" s="14"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
     </row>
     <row r="152" customHeight="true" ht="15.75">
-      <c r="A152" s="14"/>
-      <c r="B152" s="14"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
+      <c r="A152" s="11"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
     </row>
     <row r="153" customHeight="true" ht="15.75">
-      <c r="A153" s="14"/>
-      <c r="B153" s="14"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
     </row>
     <row r="154" customHeight="true" ht="15.75">
-      <c r="A154" s="14"/>
-      <c r="B154" s="14"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
+      <c r="A154" s="11"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
     </row>
     <row r="155" customHeight="true" ht="15.75">
-      <c r="A155" s="14"/>
-      <c r="B155" s="14"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
     </row>
     <row r="156" customHeight="true" ht="15.75">
-      <c r="A156" s="14"/>
-      <c r="B156" s="14"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
+      <c r="A156" s="11"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
     </row>
     <row r="157" customHeight="true" ht="15.75">
-      <c r="A157" s="14"/>
-      <c r="B157" s="14"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
+      <c r="A157" s="11"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
     </row>
     <row r="158" customHeight="true" ht="15.75">
-      <c r="A158" s="14"/>
-      <c r="B158" s="14"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
+      <c r="A158" s="11"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
     </row>
     <row r="159" customHeight="true" ht="15.75">
-      <c r="A159" s="14"/>
-      <c r="B159" s="14"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
     </row>
     <row r="160" customHeight="true" ht="15.75">
-      <c r="A160" s="14"/>
-      <c r="B160" s="14"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
     </row>
     <row r="161" customHeight="true" ht="15.75">
-      <c r="A161" s="14"/>
-      <c r="B161" s="14"/>
-      <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
     </row>
     <row r="162" customHeight="true" ht="15.75">
-      <c r="A162" s="14"/>
-      <c r="B162" s="14"/>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
     </row>
     <row r="163" customHeight="true" ht="15.75">
-      <c r="A163" s="14"/>
-      <c r="B163" s="14"/>
-      <c r="C163" s="14"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
+      <c r="A163" s="11"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
     </row>
     <row r="164" customHeight="true" ht="15.75">
-      <c r="A164" s="14"/>
-      <c r="B164" s="14"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
     </row>
     <row r="165" customHeight="true" ht="15.75">
-      <c r="A165" s="14"/>
-      <c r="B165" s="14"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
     </row>
     <row r="166" customHeight="true" ht="15.75">
-      <c r="A166" s="14"/>
-      <c r="B166" s="14"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
+      <c r="A166" s="11"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
     </row>
     <row r="167" customHeight="true" ht="15.75">
-      <c r="A167" s="14"/>
-      <c r="B167" s="14"/>
-      <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
+      <c r="A167" s="11"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
     </row>
     <row r="168" customHeight="true" ht="15.75">
-      <c r="A168" s="14"/>
-      <c r="B168" s="14"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
     </row>
     <row r="169" customHeight="true" ht="15.75">
-      <c r="A169" s="14"/>
-      <c r="B169" s="14"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
     </row>
     <row r="170" customHeight="true" ht="15.75">
-      <c r="A170" s="14"/>
-      <c r="B170" s="14"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
     </row>
     <row r="171" customHeight="true" ht="15.75">
-      <c r="A171" s="14"/>
-      <c r="B171" s="14"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
     </row>
     <row r="172" customHeight="true" ht="15.75">
-      <c r="A172" s="14"/>
-      <c r="B172" s="14"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
+      <c r="A172" s="11"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
     </row>
     <row r="173" customHeight="true" ht="15.75">
-      <c r="A173" s="14"/>
-      <c r="B173" s="14"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
+      <c r="A173" s="11"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
     </row>
     <row r="174" customHeight="true" ht="15.75">
-      <c r="A174" s="14"/>
-      <c r="B174" s="14"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
+      <c r="A174" s="11"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
     </row>
     <row r="175" customHeight="true" ht="15.75">
-      <c r="A175" s="14"/>
-      <c r="B175" s="14"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
+      <c r="A175" s="11"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
     </row>
     <row r="176" customHeight="true" ht="15.75">
-      <c r="A176" s="14"/>
-      <c r="B176" s="14"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
+      <c r="A176" s="11"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
     </row>
     <row r="177" customHeight="true" ht="15.75">
-      <c r="A177" s="14"/>
-      <c r="B177" s="14"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
     </row>
     <row r="178" customHeight="true" ht="15.75">
-      <c r="A178" s="14"/>
-      <c r="B178" s="14"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
+      <c r="A178" s="11"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
     </row>
     <row r="179" customHeight="true" ht="15.75">
-      <c r="A179" s="14"/>
-      <c r="B179" s="14"/>
-      <c r="C179" s="14"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
     </row>
     <row r="180" customHeight="true" ht="15.75">
-      <c r="A180" s="14"/>
-      <c r="B180" s="14"/>
-      <c r="C180" s="14"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
     </row>
     <row r="181" customHeight="true" ht="15.75">
-      <c r="A181" s="14"/>
-      <c r="B181" s="14"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
     </row>
     <row r="182" customHeight="true" ht="15.75">
-      <c r="A182" s="14"/>
-      <c r="B182" s="14"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
     </row>
     <row r="183" customHeight="true" ht="15.75">
-      <c r="A183" s="14"/>
-      <c r="B183" s="14"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
+      <c r="A183" s="11"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
     </row>
     <row r="184" customHeight="true" ht="15.75">
-      <c r="A184" s="14"/>
-      <c r="B184" s="14"/>
-      <c r="C184" s="14"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
     </row>
     <row r="185" customHeight="true" ht="15.75">
-      <c r="A185" s="14"/>
-      <c r="B185" s="14"/>
-      <c r="C185" s="14"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
     </row>
     <row r="186" customHeight="true" ht="15.75">
-      <c r="A186" s="14"/>
-      <c r="B186" s="14"/>
-      <c r="C186" s="14"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
+      <c r="A186" s="11"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
     </row>
     <row r="187" customHeight="true" ht="15.75">
-      <c r="A187" s="14"/>
-      <c r="B187" s="14"/>
-      <c r="C187" s="14"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
+      <c r="A187" s="11"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
     </row>
     <row r="188" customHeight="true" ht="15.75">
-      <c r="A188" s="14"/>
-      <c r="B188" s="14"/>
-      <c r="C188" s="14"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
+      <c r="A188" s="11"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
     </row>
     <row r="189" customHeight="true" ht="15.75">
-      <c r="A189" s="14"/>
-      <c r="B189" s="14"/>
-      <c r="C189" s="14"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
+      <c r="A189" s="11"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
     </row>
     <row r="190" customHeight="true" ht="15.75">
-      <c r="A190" s="14"/>
-      <c r="B190" s="14"/>
-      <c r="C190" s="14"/>
-      <c r="D190" s="14"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
     </row>
     <row r="191" customHeight="true" ht="15.75">
-      <c r="A191" s="14"/>
-      <c r="B191" s="14"/>
-      <c r="C191" s="14"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="14"/>
+      <c r="A191" s="11"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
     </row>
     <row r="192" customHeight="true" ht="15.75">
-      <c r="A192" s="14"/>
-      <c r="B192" s="14"/>
-      <c r="C192" s="14"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
+      <c r="A192" s="11"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
     </row>
     <row r="193" customHeight="true" ht="15.75">
-      <c r="A193" s="14"/>
-      <c r="B193" s="14"/>
-      <c r="C193" s="14"/>
-      <c r="D193" s="14"/>
-      <c r="E193" s="14"/>
-      <c r="F193" s="14"/>
+      <c r="A193" s="11"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
     </row>
     <row r="194" customHeight="true" ht="15.75">
-      <c r="A194" s="14"/>
-      <c r="B194" s="14"/>
-      <c r="C194" s="14"/>
-      <c r="D194" s="14"/>
-      <c r="E194" s="14"/>
-      <c r="F194" s="14"/>
+      <c r="A194" s="11"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
     </row>
     <row r="195" customHeight="true" ht="15.75">
-      <c r="A195" s="14"/>
-      <c r="B195" s="14"/>
-      <c r="C195" s="14"/>
-      <c r="D195" s="14"/>
-      <c r="E195" s="14"/>
-      <c r="F195" s="14"/>
+      <c r="A195" s="11"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
     </row>
     <row r="196" customHeight="true" ht="15.75">
-      <c r="A196" s="14"/>
-      <c r="B196" s="14"/>
-      <c r="C196" s="14"/>
-      <c r="D196" s="14"/>
-      <c r="E196" s="14"/>
-      <c r="F196" s="14"/>
+      <c r="A196" s="11"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
     </row>
     <row r="197" customHeight="true" ht="15.75">
-      <c r="A197" s="14"/>
-      <c r="B197" s="14"/>
-      <c r="C197" s="14"/>
-      <c r="D197" s="14"/>
-      <c r="E197" s="14"/>
-      <c r="F197" s="14"/>
+      <c r="A197" s="11"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
     </row>
     <row r="198" customHeight="true" ht="15.75">
-      <c r="A198" s="14"/>
-      <c r="B198" s="14"/>
-      <c r="C198" s="14"/>
-      <c r="D198" s="14"/>
-      <c r="E198" s="14"/>
-      <c r="F198" s="14"/>
+      <c r="A198" s="11"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
     </row>
     <row r="199" customHeight="true" ht="15.75">
-      <c r="A199" s="14"/>
-      <c r="B199" s="14"/>
-      <c r="C199" s="14"/>
-      <c r="D199" s="14"/>
-      <c r="E199" s="14"/>
-      <c r="F199" s="14"/>
+      <c r="A199" s="11"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
     </row>
     <row r="200" customHeight="true" ht="15.75">
-      <c r="A200" s="14"/>
-      <c r="B200" s="14"/>
-      <c r="C200" s="14"/>
-      <c r="D200" s="14"/>
-      <c r="E200" s="14"/>
-      <c r="F200" s="14"/>
+      <c r="A200" s="11"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
     </row>
     <row r="201" customHeight="true" ht="15.75">
-      <c r="A201" s="14"/>
-      <c r="B201" s="14"/>
-      <c r="C201" s="14"/>
-      <c r="D201" s="14"/>
-      <c r="E201" s="14"/>
-      <c r="F201" s="14"/>
+      <c r="A201" s="11"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
     </row>
     <row r="202" customHeight="true" ht="15.75">
-      <c r="A202" s="14"/>
-      <c r="B202" s="14"/>
-      <c r="C202" s="14"/>
-      <c r="D202" s="14"/>
-      <c r="E202" s="14"/>
-      <c r="F202" s="14"/>
+      <c r="A202" s="11"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
     </row>
     <row r="203" customHeight="true" ht="15.75">
-      <c r="A203" s="14"/>
-      <c r="B203" s="14"/>
-      <c r="C203" s="14"/>
-      <c r="D203" s="14"/>
-      <c r="E203" s="14"/>
-      <c r="F203" s="14"/>
+      <c r="A203" s="11"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
     </row>
     <row r="204" customHeight="true" ht="15.75">
-      <c r="A204" s="14"/>
-      <c r="B204" s="14"/>
-      <c r="C204" s="14"/>
-      <c r="D204" s="14"/>
-      <c r="E204" s="14"/>
-      <c r="F204" s="14"/>
+      <c r="A204" s="11"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
     </row>
     <row r="205" customHeight="true" ht="15.75">
-      <c r="A205" s="14"/>
-      <c r="B205" s="14"/>
-      <c r="C205" s="14"/>
-      <c r="D205" s="14"/>
-      <c r="E205" s="14"/>
-      <c r="F205" s="14"/>
+      <c r="A205" s="11"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11"/>
     </row>
     <row r="206" customHeight="true" ht="15.75">
-      <c r="A206" s="14"/>
-      <c r="B206" s="14"/>
-      <c r="C206" s="14"/>
-      <c r="D206" s="14"/>
-      <c r="E206" s="14"/>
-      <c r="F206" s="14"/>
+      <c r="A206" s="11"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
     </row>
     <row r="207" customHeight="true" ht="15.75">
-      <c r="A207" s="14"/>
-      <c r="B207" s="14"/>
-      <c r="C207" s="14"/>
-      <c r="D207" s="14"/>
-      <c r="E207" s="14"/>
-      <c r="F207" s="14"/>
+      <c r="A207" s="11"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="11"/>
+      <c r="F207" s="11"/>
     </row>
     <row r="208" customHeight="true" ht="15.75">
-      <c r="A208" s="14"/>
-      <c r="B208" s="14"/>
-      <c r="C208" s="14"/>
-      <c r="D208" s="14"/>
-      <c r="E208" s="14"/>
-      <c r="F208" s="14"/>
+      <c r="A208" s="11"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
+      <c r="F208" s="11"/>
     </row>
     <row r="209" customHeight="true" ht="15.75">
-      <c r="A209" s="14"/>
-      <c r="B209" s="14"/>
-      <c r="C209" s="14"/>
-      <c r="D209" s="14"/>
-      <c r="E209" s="14"/>
-      <c r="F209" s="14"/>
+      <c r="A209" s="11"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11"/>
     </row>
     <row r="210" customHeight="true" ht="15.75">
-      <c r="A210" s="14"/>
-      <c r="B210" s="14"/>
-      <c r="C210" s="14"/>
-      <c r="D210" s="14"/>
-      <c r="E210" s="14"/>
-      <c r="F210" s="14"/>
+      <c r="A210" s="11"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
+      <c r="F210" s="11"/>
     </row>
     <row r="211" customHeight="true" ht="15.75">
-      <c r="A211" s="14"/>
-      <c r="B211" s="14"/>
-      <c r="C211" s="14"/>
-      <c r="D211" s="14"/>
-      <c r="E211" s="14"/>
-      <c r="F211" s="14"/>
+      <c r="A211" s="11"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="11"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="11"/>
+      <c r="F211" s="11"/>
     </row>
     <row r="212" customHeight="true" ht="15.75">
-      <c r="A212" s="14"/>
-      <c r="B212" s="14"/>
-      <c r="C212" s="14"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="14"/>
-      <c r="F212" s="14"/>
+      <c r="A212" s="11"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11"/>
+      <c r="F212" s="11"/>
     </row>
     <row r="213" customHeight="true" ht="15.75">
-      <c r="A213" s="14"/>
-      <c r="B213" s="14"/>
-      <c r="C213" s="14"/>
-      <c r="D213" s="14"/>
-      <c r="E213" s="14"/>
-      <c r="F213" s="14"/>
+      <c r="A213" s="11"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
     </row>
     <row r="214" customHeight="true" ht="15.75">
-      <c r="A214" s="14"/>
-      <c r="B214" s="14"/>
-      <c r="C214" s="14"/>
-      <c r="D214" s="14"/>
-      <c r="E214" s="14"/>
-      <c r="F214" s="14"/>
+      <c r="A214" s="11"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11"/>
+      <c r="F214" s="11"/>
     </row>
     <row r="215" customHeight="true" ht="15.75">
-      <c r="A215" s="14"/>
-      <c r="B215" s="14"/>
-      <c r="C215" s="14"/>
-      <c r="D215" s="14"/>
-      <c r="E215" s="14"/>
-      <c r="F215" s="14"/>
+      <c r="A215" s="11"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="11"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="11"/>
+      <c r="F215" s="11"/>
     </row>
     <row r="216" customHeight="true" ht="15.75">
-      <c r="A216" s="14"/>
-      <c r="B216" s="14"/>
-      <c r="C216" s="14"/>
-      <c r="D216" s="14"/>
-      <c r="E216" s="14"/>
-      <c r="F216" s="14"/>
+      <c r="A216" s="11"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="11"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11"/>
+      <c r="F216" s="11"/>
     </row>
     <row r="217" customHeight="true" ht="15.75">
-      <c r="A217" s="14"/>
-      <c r="B217" s="14"/>
-      <c r="C217" s="14"/>
-      <c r="D217" s="14"/>
-      <c r="E217" s="14"/>
-      <c r="F217" s="14"/>
+      <c r="A217" s="11"/>
+      <c r="B217" s="11"/>
+      <c r="C217" s="11"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="11"/>
+      <c r="F217" s="11"/>
     </row>
     <row r="218" customHeight="true" ht="15.75">
-      <c r="A218" s="14"/>
-      <c r="B218" s="14"/>
-      <c r="C218" s="14"/>
-      <c r="D218" s="14"/>
-      <c r="E218" s="14"/>
-      <c r="F218" s="14"/>
+      <c r="A218" s="11"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="11"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
+      <c r="F218" s="11"/>
     </row>
     <row r="219" customHeight="true" ht="15.75">
-      <c r="A219" s="14"/>
-      <c r="B219" s="14"/>
-      <c r="C219" s="14"/>
-      <c r="D219" s="14"/>
-      <c r="E219" s="14"/>
-      <c r="F219" s="14"/>
+      <c r="A219" s="11"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
+      <c r="F219" s="11"/>
     </row>
     <row r="220" customHeight="true" ht="15.75">
-      <c r="A220" s="14"/>
-      <c r="B220" s="14"/>
-      <c r="C220" s="14"/>
-      <c r="D220" s="14"/>
-      <c r="E220" s="14"/>
-      <c r="F220" s="14"/>
+      <c r="A220" s="11"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
     </row>
     <row r="221" customHeight="true" ht="15.75"/>
     <row r="222" customHeight="true" ht="15.75"/>
@@ -31210,7 +31543,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="F11" activeCell="F11"/>
+      <selection sqref="H13" activeCell="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" customHeight="true" defaultRowHeight="15"/>
@@ -31242,7 +31575,7 @@
       <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -31258,1808 +31591,1896 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>31</v>
+      <c r="A2" s="11" t="s">
+        <v>51</v>
       </c>
-      <c r="B2" s="14" t="n">
+      <c r="B2" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="C2" s="14" t="n">
+      <c r="C2" s="11" t="n">
         <v>1640</v>
       </c>
-      <c r="D2" s="14" t="n">
+      <c r="D2" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>44</v>
+      <c r="E2" s="25" t="s">
+        <v>78</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="F2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>39</v>
+      <c r="A3" s="11" t="s">
+        <v>55</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="L3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>1650</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="L4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>1535</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="L5" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>40</v>
+      <c r="C6" s="9" t="s">
+        <v>65</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>44</v>
+      <c r="E6" s="25" t="s">
+        <v>78</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>41</v>
+      <c r="F6" s="10" t="s">
+        <v>66</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11" t="s">
-        <v>42</v>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
-        <v>44</v>
+    <row r="7">
+      <c r="A7" s="11" t="s">
+        <v>68</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7">
-      <c r="G7" s="14"/>
+      <c r="B7" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="L7" s="29" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>1670</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="L8" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18">
-      <c r="G18" s="14"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" customHeight="true" ht="15.75">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" customHeight="true" ht="15.75">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" customHeight="true" ht="15.75">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" customHeight="true" ht="15.75">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" customHeight="true" ht="15.75">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" customHeight="true" ht="15.75">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" customHeight="true" ht="15.75">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" customHeight="true" ht="15.75">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" customHeight="true" ht="15.75">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" customHeight="true" ht="15.75">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" customHeight="true" ht="15.75">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" customHeight="true" ht="15.75">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" customHeight="true" ht="15.75">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" customHeight="true" ht="15.75">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" customHeight="true" ht="15.75">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" customHeight="true" ht="15.75">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" customHeight="true" ht="15.75">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" customHeight="true" ht="15.75">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" customHeight="true" ht="15.75">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" customHeight="true" ht="15.75">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" customHeight="true" ht="15.75">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" customHeight="true" ht="15.75">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" customHeight="true" ht="15.75">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" customHeight="true" ht="15.75">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" customHeight="true" ht="15.75">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" customHeight="true" ht="15.75">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" customHeight="true" ht="15.75">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" customHeight="true" ht="15.75">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
     </row>
     <row r="49" customHeight="true" ht="15.75">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" customHeight="true" ht="15.75">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" customHeight="true" ht="15.75">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" customHeight="true" ht="15.75">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" customHeight="true" ht="15.75">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" customHeight="true" ht="15.75">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" customHeight="true" ht="15.75">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" customHeight="true" ht="15.75">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" customHeight="true" ht="15.75">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" customHeight="true" ht="15.75">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" customHeight="true" ht="15.75">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" customHeight="true" ht="15.75">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" customHeight="true" ht="15.75">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
     </row>
     <row r="62" customHeight="true" ht="15.75">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" customHeight="true" ht="15.75">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" customHeight="true" ht="15.75">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" customHeight="true" ht="15.75">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
     </row>
     <row r="66" customHeight="true" ht="15.75">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
     </row>
     <row r="67" customHeight="true" ht="15.75">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" customHeight="true" ht="15.75">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" customHeight="true" ht="15.75">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
     </row>
     <row r="70" customHeight="true" ht="15.75">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
     </row>
     <row r="71" customHeight="true" ht="15.75">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
     </row>
     <row r="72" customHeight="true" ht="15.75">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" customHeight="true" ht="15.75">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
     </row>
     <row r="74" customHeight="true" ht="15.75">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" customHeight="true" ht="15.75">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
     </row>
     <row r="76" customHeight="true" ht="15.75">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
     </row>
     <row r="77" customHeight="true" ht="15.75">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
     </row>
     <row r="78" customHeight="true" ht="15.75">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
     </row>
     <row r="79" customHeight="true" ht="15.75">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
     </row>
     <row r="80" customHeight="true" ht="15.75">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
     </row>
     <row r="81" customHeight="true" ht="15.75">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
     </row>
     <row r="82" customHeight="true" ht="15.75">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
     </row>
     <row r="83" customHeight="true" ht="15.75">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
     </row>
     <row r="84" customHeight="true" ht="15.75">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
     </row>
     <row r="85" customHeight="true" ht="15.75">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
     </row>
     <row r="86" customHeight="true" ht="15.75">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" customHeight="true" ht="15.75">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
     </row>
     <row r="88" customHeight="true" ht="15.75">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
     </row>
     <row r="89" customHeight="true" ht="15.75">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
     </row>
     <row r="90" customHeight="true" ht="15.75">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
     </row>
     <row r="91" customHeight="true" ht="15.75">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
     </row>
     <row r="92" customHeight="true" ht="15.75">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
     </row>
     <row r="93" customHeight="true" ht="15.75">
-      <c r="A93" s="14"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
     </row>
     <row r="94" customHeight="true" ht="15.75">
-      <c r="A94" s="14"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
     </row>
     <row r="95" customHeight="true" ht="15.75">
-      <c r="A95" s="14"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
     </row>
     <row r="96" customHeight="true" ht="15.75">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
     </row>
     <row r="97" customHeight="true" ht="15.75">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
     </row>
     <row r="98" customHeight="true" ht="15.75">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
     </row>
     <row r="99" customHeight="true" ht="15.75">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
     </row>
     <row r="100" customHeight="true" ht="15.75">
-      <c r="A100" s="14"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
     </row>
     <row r="101" customHeight="true" ht="15.75">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
     </row>
     <row r="102" customHeight="true" ht="15.75">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
     </row>
     <row r="103" customHeight="true" ht="15.75">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
     </row>
     <row r="104" customHeight="true" ht="15.75">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
     </row>
     <row r="105" customHeight="true" ht="15.75">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
     </row>
     <row r="106" customHeight="true" ht="15.75">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
     </row>
     <row r="107" customHeight="true" ht="15.75">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
     </row>
     <row r="108" customHeight="true" ht="15.75">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
     </row>
     <row r="109" customHeight="true" ht="15.75">
-      <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
     </row>
     <row r="110" customHeight="true" ht="15.75">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
     </row>
     <row r="111" customHeight="true" ht="15.75">
-      <c r="A111" s="14"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
     </row>
     <row r="112" customHeight="true" ht="15.75">
-      <c r="A112" s="14"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
     </row>
     <row r="113" customHeight="true" ht="15.75">
-      <c r="A113" s="14"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
     </row>
     <row r="114" customHeight="true" ht="15.75">
-      <c r="A114" s="14"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
     </row>
     <row r="115" customHeight="true" ht="15.75">
-      <c r="A115" s="14"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
     </row>
     <row r="116" customHeight="true" ht="15.75">
-      <c r="A116" s="14"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
     </row>
     <row r="117" customHeight="true" ht="15.75">
-      <c r="A117" s="14"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
     </row>
     <row r="118" customHeight="true" ht="15.75">
-      <c r="A118" s="14"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
     </row>
     <row r="119" customHeight="true" ht="15.75">
-      <c r="A119" s="14"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
     </row>
     <row r="120" customHeight="true" ht="15.75">
-      <c r="A120" s="14"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
     </row>
     <row r="121" customHeight="true" ht="15.75">
-      <c r="A121" s="14"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
     </row>
     <row r="122" customHeight="true" ht="15.75">
-      <c r="A122" s="14"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
     </row>
     <row r="123" customHeight="true" ht="15.75">
-      <c r="A123" s="14"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
     </row>
     <row r="124" customHeight="true" ht="15.75">
-      <c r="A124" s="14"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
     </row>
     <row r="125" customHeight="true" ht="15.75">
-      <c r="A125" s="14"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
     </row>
     <row r="126" customHeight="true" ht="15.75">
-      <c r="A126" s="14"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
     </row>
     <row r="127" customHeight="true" ht="15.75">
-      <c r="A127" s="14"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
     </row>
     <row r="128" customHeight="true" ht="15.75">
-      <c r="A128" s="14"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
     </row>
     <row r="129" customHeight="true" ht="15.75">
-      <c r="A129" s="14"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
     </row>
     <row r="130" customHeight="true" ht="15.75">
-      <c r="A130" s="14"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
     </row>
     <row r="131" customHeight="true" ht="15.75">
-      <c r="A131" s="14"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
     </row>
     <row r="132" customHeight="true" ht="15.75">
-      <c r="A132" s="14"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
     </row>
     <row r="133" customHeight="true" ht="15.75">
-      <c r="A133" s="14"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
     </row>
     <row r="134" customHeight="true" ht="15.75">
-      <c r="A134" s="14"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
     </row>
     <row r="135" customHeight="true" ht="15.75">
-      <c r="A135" s="14"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
     </row>
     <row r="136" customHeight="true" ht="15.75">
-      <c r="A136" s="14"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
     </row>
     <row r="137" customHeight="true" ht="15.75">
-      <c r="A137" s="14"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
     </row>
     <row r="138" customHeight="true" ht="15.75">
-      <c r="A138" s="14"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
     </row>
     <row r="139" customHeight="true" ht="15.75">
-      <c r="A139" s="14"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
     </row>
     <row r="140" customHeight="true" ht="15.75">
-      <c r="A140" s="14"/>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
     </row>
     <row r="141" customHeight="true" ht="15.75">
-      <c r="A141" s="14"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
     </row>
     <row r="142" customHeight="true" ht="15.75">
-      <c r="A142" s="14"/>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
     </row>
     <row r="143" customHeight="true" ht="15.75">
-      <c r="A143" s="14"/>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
     </row>
     <row r="144" customHeight="true" ht="15.75">
-      <c r="A144" s="14"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
     </row>
     <row r="145" customHeight="true" ht="15.75">
-      <c r="A145" s="14"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
     </row>
     <row r="146" customHeight="true" ht="15.75">
-      <c r="A146" s="14"/>
-      <c r="B146" s="14"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
     </row>
     <row r="147" customHeight="true" ht="15.75">
-      <c r="A147" s="14"/>
-      <c r="B147" s="14"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
+      <c r="A147" s="11"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
     </row>
     <row r="148" customHeight="true" ht="15.75">
-      <c r="A148" s="14"/>
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
+      <c r="A148" s="11"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
     </row>
     <row r="149" customHeight="true" ht="15.75">
-      <c r="A149" s="14"/>
-      <c r="B149" s="14"/>
-      <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
+      <c r="A149" s="11"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
     </row>
     <row r="150" customHeight="true" ht="15.75">
-      <c r="A150" s="14"/>
-      <c r="B150" s="14"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
     </row>
     <row r="151" customHeight="true" ht="15.75">
-      <c r="A151" s="14"/>
-      <c r="B151" s="14"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
     </row>
     <row r="152" customHeight="true" ht="15.75">
-      <c r="A152" s="14"/>
-      <c r="B152" s="14"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
+      <c r="A152" s="11"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
     </row>
     <row r="153" customHeight="true" ht="15.75">
-      <c r="A153" s="14"/>
-      <c r="B153" s="14"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
     </row>
     <row r="154" customHeight="true" ht="15.75">
-      <c r="A154" s="14"/>
-      <c r="B154" s="14"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
+      <c r="A154" s="11"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
     </row>
     <row r="155" customHeight="true" ht="15.75">
-      <c r="A155" s="14"/>
-      <c r="B155" s="14"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
     </row>
     <row r="156" customHeight="true" ht="15.75">
-      <c r="A156" s="14"/>
-      <c r="B156" s="14"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
+      <c r="A156" s="11"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
     </row>
     <row r="157" customHeight="true" ht="15.75">
-      <c r="A157" s="14"/>
-      <c r="B157" s="14"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
+      <c r="A157" s="11"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
     </row>
     <row r="158" customHeight="true" ht="15.75">
-      <c r="A158" s="14"/>
-      <c r="B158" s="14"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
+      <c r="A158" s="11"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
     </row>
     <row r="159" customHeight="true" ht="15.75">
-      <c r="A159" s="14"/>
-      <c r="B159" s="14"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
     </row>
     <row r="160" customHeight="true" ht="15.75">
-      <c r="A160" s="14"/>
-      <c r="B160" s="14"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
     </row>
     <row r="161" customHeight="true" ht="15.75">
-      <c r="A161" s="14"/>
-      <c r="B161" s="14"/>
-      <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
     </row>
     <row r="162" customHeight="true" ht="15.75">
-      <c r="A162" s="14"/>
-      <c r="B162" s="14"/>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
     </row>
     <row r="163" customHeight="true" ht="15.75">
-      <c r="A163" s="14"/>
-      <c r="B163" s="14"/>
-      <c r="C163" s="14"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
+      <c r="A163" s="11"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
     </row>
     <row r="164" customHeight="true" ht="15.75">
-      <c r="A164" s="14"/>
-      <c r="B164" s="14"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
     </row>
     <row r="165" customHeight="true" ht="15.75">
-      <c r="A165" s="14"/>
-      <c r="B165" s="14"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
     </row>
     <row r="166" customHeight="true" ht="15.75">
-      <c r="A166" s="14"/>
-      <c r="B166" s="14"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
+      <c r="A166" s="11"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
     </row>
     <row r="167" customHeight="true" ht="15.75">
-      <c r="A167" s="14"/>
-      <c r="B167" s="14"/>
-      <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
+      <c r="A167" s="11"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
     </row>
     <row r="168" customHeight="true" ht="15.75">
-      <c r="A168" s="14"/>
-      <c r="B168" s="14"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
     </row>
     <row r="169" customHeight="true" ht="15.75">
-      <c r="A169" s="14"/>
-      <c r="B169" s="14"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
     </row>
     <row r="170" customHeight="true" ht="15.75">
-      <c r="A170" s="14"/>
-      <c r="B170" s="14"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
     </row>
     <row r="171" customHeight="true" ht="15.75">
-      <c r="A171" s="14"/>
-      <c r="B171" s="14"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
     </row>
     <row r="172" customHeight="true" ht="15.75">
-      <c r="A172" s="14"/>
-      <c r="B172" s="14"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
+      <c r="A172" s="11"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
     </row>
     <row r="173" customHeight="true" ht="15.75">
-      <c r="A173" s="14"/>
-      <c r="B173" s="14"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
+      <c r="A173" s="11"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
     </row>
     <row r="174" customHeight="true" ht="15.75">
-      <c r="A174" s="14"/>
-      <c r="B174" s="14"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
+      <c r="A174" s="11"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
     </row>
     <row r="175" customHeight="true" ht="15.75">
-      <c r="A175" s="14"/>
-      <c r="B175" s="14"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
+      <c r="A175" s="11"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
     </row>
     <row r="176" customHeight="true" ht="15.75">
-      <c r="A176" s="14"/>
-      <c r="B176" s="14"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
+      <c r="A176" s="11"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
     </row>
     <row r="177" customHeight="true" ht="15.75">
-      <c r="A177" s="14"/>
-      <c r="B177" s="14"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
     </row>
     <row r="178" customHeight="true" ht="15.75">
-      <c r="A178" s="14"/>
-      <c r="B178" s="14"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
+      <c r="A178" s="11"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
     </row>
     <row r="179" customHeight="true" ht="15.75">
-      <c r="A179" s="14"/>
-      <c r="B179" s="14"/>
-      <c r="C179" s="14"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
     </row>
     <row r="180" customHeight="true" ht="15.75">
-      <c r="A180" s="14"/>
-      <c r="B180" s="14"/>
-      <c r="C180" s="14"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
     </row>
     <row r="181" customHeight="true" ht="15.75">
-      <c r="A181" s="14"/>
-      <c r="B181" s="14"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
     </row>
     <row r="182" customHeight="true" ht="15.75">
-      <c r="A182" s="14"/>
-      <c r="B182" s="14"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
     </row>
     <row r="183" customHeight="true" ht="15.75">
-      <c r="A183" s="14"/>
-      <c r="B183" s="14"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
+      <c r="A183" s="11"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
     </row>
     <row r="184" customHeight="true" ht="15.75">
-      <c r="A184" s="14"/>
-      <c r="B184" s="14"/>
-      <c r="C184" s="14"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
     </row>
     <row r="185" customHeight="true" ht="15.75">
-      <c r="A185" s="14"/>
-      <c r="B185" s="14"/>
-      <c r="C185" s="14"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
     </row>
     <row r="186" customHeight="true" ht="15.75">
-      <c r="A186" s="14"/>
-      <c r="B186" s="14"/>
-      <c r="C186" s="14"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
+      <c r="A186" s="11"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
     </row>
     <row r="187" customHeight="true" ht="15.75">
-      <c r="A187" s="14"/>
-      <c r="B187" s="14"/>
-      <c r="C187" s="14"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
+      <c r="A187" s="11"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
     </row>
     <row r="188" customHeight="true" ht="15.75">
-      <c r="A188" s="14"/>
-      <c r="B188" s="14"/>
-      <c r="C188" s="14"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
+      <c r="A188" s="11"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
     </row>
     <row r="189" customHeight="true" ht="15.75">
-      <c r="A189" s="14"/>
-      <c r="B189" s="14"/>
-      <c r="C189" s="14"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
+      <c r="A189" s="11"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
     </row>
     <row r="190" customHeight="true" ht="15.75">
-      <c r="A190" s="14"/>
-      <c r="B190" s="14"/>
-      <c r="C190" s="14"/>
-      <c r="D190" s="14"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
     </row>
     <row r="191" customHeight="true" ht="15.75">
-      <c r="A191" s="14"/>
-      <c r="B191" s="14"/>
-      <c r="C191" s="14"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="14"/>
+      <c r="A191" s="11"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
     </row>
     <row r="192" customHeight="true" ht="15.75">
-      <c r="A192" s="14"/>
-      <c r="B192" s="14"/>
-      <c r="C192" s="14"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
+      <c r="A192" s="11"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
     </row>
     <row r="193" customHeight="true" ht="15.75">
-      <c r="A193" s="14"/>
-      <c r="B193" s="14"/>
-      <c r="C193" s="14"/>
-      <c r="D193" s="14"/>
-      <c r="E193" s="14"/>
-      <c r="F193" s="14"/>
+      <c r="A193" s="11"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
     </row>
     <row r="194" customHeight="true" ht="15.75">
-      <c r="A194" s="14"/>
-      <c r="B194" s="14"/>
-      <c r="C194" s="14"/>
-      <c r="D194" s="14"/>
-      <c r="E194" s="14"/>
-      <c r="F194" s="14"/>
+      <c r="A194" s="11"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
     </row>
     <row r="195" customHeight="true" ht="15.75">
-      <c r="A195" s="14"/>
-      <c r="B195" s="14"/>
-      <c r="C195" s="14"/>
-      <c r="D195" s="14"/>
-      <c r="E195" s="14"/>
-      <c r="F195" s="14"/>
+      <c r="A195" s="11"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
     </row>
     <row r="196" customHeight="true" ht="15.75">
-      <c r="A196" s="14"/>
-      <c r="B196" s="14"/>
-      <c r="C196" s="14"/>
-      <c r="D196" s="14"/>
-      <c r="E196" s="14"/>
-      <c r="F196" s="14"/>
+      <c r="A196" s="11"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
     </row>
     <row r="197" customHeight="true" ht="15.75">
-      <c r="A197" s="14"/>
-      <c r="B197" s="14"/>
-      <c r="C197" s="14"/>
-      <c r="D197" s="14"/>
-      <c r="E197" s="14"/>
-      <c r="F197" s="14"/>
+      <c r="A197" s="11"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
     </row>
     <row r="198" customHeight="true" ht="15.75">
-      <c r="A198" s="14"/>
-      <c r="B198" s="14"/>
-      <c r="C198" s="14"/>
-      <c r="D198" s="14"/>
-      <c r="E198" s="14"/>
-      <c r="F198" s="14"/>
+      <c r="A198" s="11"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
     </row>
     <row r="199" customHeight="true" ht="15.75">
-      <c r="A199" s="14"/>
-      <c r="B199" s="14"/>
-      <c r="C199" s="14"/>
-      <c r="D199" s="14"/>
-      <c r="E199" s="14"/>
-      <c r="F199" s="14"/>
+      <c r="A199" s="11"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
     </row>
     <row r="200" customHeight="true" ht="15.75">
-      <c r="A200" s="14"/>
-      <c r="B200" s="14"/>
-      <c r="C200" s="14"/>
-      <c r="D200" s="14"/>
-      <c r="E200" s="14"/>
-      <c r="F200" s="14"/>
+      <c r="A200" s="11"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
     </row>
     <row r="201" customHeight="true" ht="15.75">
-      <c r="A201" s="14"/>
-      <c r="B201" s="14"/>
-      <c r="C201" s="14"/>
-      <c r="D201" s="14"/>
-      <c r="E201" s="14"/>
-      <c r="F201" s="14"/>
+      <c r="A201" s="11"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
     </row>
     <row r="202" customHeight="true" ht="15.75">
-      <c r="A202" s="14"/>
-      <c r="B202" s="14"/>
-      <c r="C202" s="14"/>
-      <c r="D202" s="14"/>
-      <c r="E202" s="14"/>
-      <c r="F202" s="14"/>
+      <c r="A202" s="11"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
     </row>
     <row r="203" customHeight="true" ht="15.75">
-      <c r="A203" s="14"/>
-      <c r="B203" s="14"/>
-      <c r="C203" s="14"/>
-      <c r="D203" s="14"/>
-      <c r="E203" s="14"/>
-      <c r="F203" s="14"/>
+      <c r="A203" s="11"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
     </row>
     <row r="204" customHeight="true" ht="15.75">
-      <c r="A204" s="14"/>
-      <c r="B204" s="14"/>
-      <c r="C204" s="14"/>
-      <c r="D204" s="14"/>
-      <c r="E204" s="14"/>
-      <c r="F204" s="14"/>
+      <c r="A204" s="11"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
     </row>
     <row r="205" customHeight="true" ht="15.75">
-      <c r="A205" s="14"/>
-      <c r="B205" s="14"/>
-      <c r="C205" s="14"/>
-      <c r="D205" s="14"/>
-      <c r="E205" s="14"/>
-      <c r="F205" s="14"/>
+      <c r="A205" s="11"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11"/>
     </row>
     <row r="206" customHeight="true" ht="15.75">
-      <c r="A206" s="14"/>
-      <c r="B206" s="14"/>
-      <c r="C206" s="14"/>
-      <c r="D206" s="14"/>
-      <c r="E206" s="14"/>
-      <c r="F206" s="14"/>
+      <c r="A206" s="11"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
     </row>
     <row r="207" customHeight="true" ht="15.75">
-      <c r="A207" s="14"/>
-      <c r="B207" s="14"/>
-      <c r="C207" s="14"/>
-      <c r="D207" s="14"/>
-      <c r="E207" s="14"/>
-      <c r="F207" s="14"/>
+      <c r="A207" s="11"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="11"/>
+      <c r="F207" s="11"/>
     </row>
     <row r="208" customHeight="true" ht="15.75">
-      <c r="A208" s="14"/>
-      <c r="B208" s="14"/>
-      <c r="C208" s="14"/>
-      <c r="D208" s="14"/>
-      <c r="E208" s="14"/>
-      <c r="F208" s="14"/>
+      <c r="A208" s="11"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
+      <c r="F208" s="11"/>
     </row>
     <row r="209" customHeight="true" ht="15.75">
-      <c r="A209" s="14"/>
-      <c r="B209" s="14"/>
-      <c r="C209" s="14"/>
-      <c r="D209" s="14"/>
-      <c r="E209" s="14"/>
-      <c r="F209" s="14"/>
+      <c r="A209" s="11"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11"/>
     </row>
     <row r="210" customHeight="true" ht="15.75">
-      <c r="A210" s="14"/>
-      <c r="B210" s="14"/>
-      <c r="C210" s="14"/>
-      <c r="D210" s="14"/>
-      <c r="E210" s="14"/>
-      <c r="F210" s="14"/>
+      <c r="A210" s="11"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
+      <c r="F210" s="11"/>
     </row>
     <row r="211" customHeight="true" ht="15.75">
-      <c r="A211" s="14"/>
-      <c r="B211" s="14"/>
-      <c r="C211" s="14"/>
-      <c r="D211" s="14"/>
-      <c r="E211" s="14"/>
-      <c r="F211" s="14"/>
+      <c r="A211" s="11"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="11"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="11"/>
+      <c r="F211" s="11"/>
     </row>
     <row r="212" customHeight="true" ht="15.75">
-      <c r="A212" s="14"/>
-      <c r="B212" s="14"/>
-      <c r="C212" s="14"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="14"/>
-      <c r="F212" s="14"/>
+      <c r="A212" s="11"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11"/>
+      <c r="F212" s="11"/>
     </row>
     <row r="213" customHeight="true" ht="15.75">
-      <c r="A213" s="14"/>
-      <c r="B213" s="14"/>
-      <c r="C213" s="14"/>
-      <c r="D213" s="14"/>
-      <c r="E213" s="14"/>
-      <c r="F213" s="14"/>
+      <c r="A213" s="11"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
     </row>
     <row r="214" customHeight="true" ht="15.75">
-      <c r="A214" s="14"/>
-      <c r="B214" s="14"/>
-      <c r="C214" s="14"/>
-      <c r="D214" s="14"/>
-      <c r="E214" s="14"/>
-      <c r="F214" s="14"/>
+      <c r="A214" s="11"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11"/>
+      <c r="F214" s="11"/>
     </row>
     <row r="215" customHeight="true" ht="15.75">
-      <c r="A215" s="14"/>
-      <c r="B215" s="14"/>
-      <c r="C215" s="14"/>
-      <c r="D215" s="14"/>
-      <c r="E215" s="14"/>
-      <c r="F215" s="14"/>
+      <c r="A215" s="11"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="11"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="11"/>
+      <c r="F215" s="11"/>
     </row>
     <row r="216" customHeight="true" ht="15.75">
-      <c r="A216" s="14"/>
-      <c r="B216" s="14"/>
-      <c r="C216" s="14"/>
-      <c r="D216" s="14"/>
-      <c r="E216" s="14"/>
-      <c r="F216" s="14"/>
+      <c r="A216" s="11"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="11"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11"/>
+      <c r="F216" s="11"/>
     </row>
     <row r="217" customHeight="true" ht="15.75">
-      <c r="A217" s="14"/>
-      <c r="B217" s="14"/>
-      <c r="C217" s="14"/>
-      <c r="D217" s="14"/>
-      <c r="E217" s="14"/>
-      <c r="F217" s="14"/>
+      <c r="A217" s="11"/>
+      <c r="B217" s="11"/>
+      <c r="C217" s="11"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="11"/>
+      <c r="F217" s="11"/>
     </row>
     <row r="218" customHeight="true" ht="15.75">
-      <c r="A218" s="14"/>
-      <c r="B218" s="14"/>
-      <c r="C218" s="14"/>
-      <c r="D218" s="14"/>
-      <c r="E218" s="14"/>
-      <c r="F218" s="14"/>
+      <c r="A218" s="11"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="11"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
+      <c r="F218" s="11"/>
     </row>
     <row r="219" customHeight="true" ht="15.75">
-      <c r="A219" s="14"/>
-      <c r="B219" s="14"/>
-      <c r="C219" s="14"/>
-      <c r="D219" s="14"/>
-      <c r="E219" s="14"/>
-      <c r="F219" s="14"/>
+      <c r="A219" s="11"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
+      <c r="F219" s="11"/>
     </row>
     <row r="220" customHeight="true" ht="15.75">
-      <c r="A220" s="14"/>
-      <c r="B220" s="14"/>
-      <c r="C220" s="14"/>
-      <c r="D220" s="14"/>
-      <c r="E220" s="14"/>
-      <c r="F220" s="14"/>
+      <c r="A220" s="11"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
     </row>
     <row r="221" customHeight="true" ht="15.75"/>
     <row r="222" customHeight="true" ht="15.75"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1"/>
+    <workbookView activeTab="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1"/>
   </bookViews>
   <sheets>
     <sheet name="AP" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>TankName</t>
   </si>
@@ -170,6 +170,198 @@
     <t>2.39, 0</t>
   </si>
   <si>
+    <t>uk_ac4_thunderbolt</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>0, -0.346</t>
+  </si>
+  <si>
+    <t>germ_pzkpfw_IV_ausf_H</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>0.041, -0.407</t>
+  </si>
+  <si>
+    <t>germ_sdkfz_9_flak37</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>0.875, 0.669</t>
+  </si>
+  <si>
+    <t>0.887, -0.002</t>
+  </si>
+  <si>
+    <t>us_m4a1_76w_sherman</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>0.137, 0.352</t>
+  </si>
+  <si>
+    <t>us_m18_hellcat</t>
+  </si>
+  <si>
+    <t>0.091, -0.202</t>
+  </si>
+  <si>
+    <t>us_t55e1</t>
+  </si>
+  <si>
+    <t>0.223, 0.570</t>
+  </si>
+  <si>
+    <t>uk_crusader_mk_2</t>
+  </si>
+  <si>
+    <t>-0.001, -0.228</t>
+  </si>
+  <si>
+    <t>uk_crusader_mk_3</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>0.043, -0.222</t>
+  </si>
+  <si>
+    <t>us_m4_sherman</t>
+  </si>
+  <si>
+    <t>618</t>
+  </si>
+  <si>
+    <t>0.151, 0.374</t>
+  </si>
+  <si>
+    <t>us_m4a1_1942_sherman</t>
+  </si>
+  <si>
+    <t>0.634, 0.550</t>
+  </si>
+  <si>
+    <t>us_m10</t>
+  </si>
+  <si>
+    <t>0.154, -0.409</t>
+  </si>
+  <si>
+    <t>ussr_kv_1_L_11</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>0.278, -0.227</t>
+  </si>
+  <si>
+    <t>ussr_t_34_1941</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>0.117, -0.231</t>
+  </si>
+  <si>
+    <t>ussr_t_34_1941_cast_turret</t>
+  </si>
+  <si>
+    <t>ussr_t_34_85_zis_53</t>
+  </si>
+  <si>
+    <t>-0.009, -0.288</t>
+  </si>
+  <si>
+    <t>ussr_t_34_85_d_5t</t>
+  </si>
+  <si>
+    <t>0.087, -0.278</t>
+  </si>
+  <si>
+    <t>uk_sherman_vc_firefly</t>
+  </si>
+  <si>
+    <t>0.150, 0.374</t>
+  </si>
+  <si>
+    <t>ussr_t_54_1947</t>
+  </si>
+  <si>
+    <t>887</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>0.037, -0.352</t>
+  </si>
+  <si>
+    <t>ussr_t_54_1949</t>
+  </si>
+  <si>
+    <t>0.024, -0.345</t>
+  </si>
+  <si>
+    <t>ussr_t_54_1951</t>
+  </si>
+  <si>
+    <t>0.024, -0.356</t>
+  </si>
+  <si>
+    <t>ussr_is_1</t>
+  </si>
+  <si>
+    <t>0.101, -0.253</t>
+  </si>
+  <si>
+    <t>ussr_is_2_1943</t>
+  </si>
+  <si>
+    <t>795</t>
+  </si>
+  <si>
+    <t>0.121, -0.254</t>
+  </si>
+  <si>
+    <t>ussr_is_2_1944</t>
+  </si>
+  <si>
+    <t>-0.031, -0.371</t>
+  </si>
+  <si>
+    <t>ussr_is_2_1944_revenge</t>
+  </si>
+  <si>
+    <t>ussr_is_3</t>
+  </si>
+  <si>
+    <t>-0.021, -0.369</t>
+  </si>
+  <si>
+    <t>ussr_is_4m</t>
+  </si>
+  <si>
+    <t>-0.008, -0.396</t>
+  </si>
+  <si>
+    <t>ussr_is_6</t>
+  </si>
+  <si>
+    <t>-0.010, -0.341</t>
+  </si>
+  <si>
     <t>germ_leopard_2a4</t>
   </si>
   <si>
@@ -249,6 +441,90 @@
   </si>
   <si>
     <t>0.417, 0</t>
+  </si>
+  <si>
+    <t>germ_leopard_I</t>
+  </si>
+  <si>
+    <t>0.364, 0.844</t>
+  </si>
+  <si>
+    <t>germ_mkpz_m48a2c</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>0.145, 0.293</t>
+  </si>
+  <si>
+    <t>ussr_t_64_b_1984</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>0.690, -0.473</t>
+  </si>
+  <si>
+    <t>0.329, 0</t>
+  </si>
+  <si>
+    <t>ussr_t_64a_1971</t>
+  </si>
+  <si>
+    <t>0.648, -0.526</t>
+  </si>
+  <si>
+    <t>0.275, 0</t>
+  </si>
+  <si>
+    <t>ussr_t_80b</t>
+  </si>
+  <si>
+    <t>0.640, -0.467</t>
+  </si>
+  <si>
+    <t>0.218, 0</t>
+  </si>
+  <si>
+    <t>germ_leopard_I_a1</t>
+  </si>
+  <si>
+    <t>0.363, 0.846</t>
+  </si>
+  <si>
+    <t>germ_leopard_1a5</t>
+  </si>
+  <si>
+    <t>0.526, 0.510</t>
+  </si>
+  <si>
+    <t>uk_charioteer_mk_7</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>0.465, -0.476</t>
+  </si>
+  <si>
+    <t>uk_centurion_mk_1</t>
+  </si>
+  <si>
+    <t>0.442, 0.636</t>
+  </si>
+  <si>
+    <t>0.422, 0</t>
+  </si>
+  <si>
+    <t>uk_a_34_comet</t>
+  </si>
+  <si>
+    <t>0.041, -0.359</t>
+  </si>
+  <si>
+    <t>uk_a_34_comet_iron_duke</t>
   </si>
   <si>
     <t>laser</t>
@@ -420,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -470,63 +746,59 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="6" fillId="0" fontId="1" numFmtId="2" xfId="0">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="6" fillId="0" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="6" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="6" fillId="0" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -541,12 +813,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
@@ -562,8 +846,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="A15" activeCell="A15"/>
+    <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
+      <selection sqref="G26" activeCell="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" customHeight="true" defaultRowHeight="15"/>
@@ -1127,12 +1411,24 @@
       <c r="Z14" s="8"/>
     </row>
     <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1155,12 +1451,24 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="G16" s="9"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1183,18 +1491,32 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="L17" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
@@ -1211,12 +1533,24 @@
       <c r="Z17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1239,12 +1573,24 @@
       <c r="Z18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -1267,12 +1613,24 @@
       <c r="Z19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1295,12 +1653,24 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" customHeight="true" ht="15.75">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="A21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -1323,12 +1693,24 @@
       <c r="Z21" s="8"/>
     </row>
     <row r="22" customHeight="true" ht="15.75">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="A22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="G22" s="9"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -1351,12 +1733,24 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" customHeight="true" ht="15.75">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="A23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="G23" s="9"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -1379,12 +1773,24 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" customHeight="true" ht="15.75">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="A24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="G24" s="9"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1407,12 +1813,24 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" customHeight="true" ht="15.75">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="A25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="G25" s="9"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -1435,12 +1853,24 @@
       <c r="Z25" s="8"/>
     </row>
     <row r="26" customHeight="true" ht="15.75">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="A26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="G26" s="9"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -1463,12 +1893,24 @@
       <c r="Z26" s="8"/>
     </row>
     <row r="27" customHeight="true" ht="15.75">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="A27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="G27" s="9"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -1491,12 +1933,24 @@
       <c r="Z27" s="8"/>
     </row>
     <row r="28" customHeight="true" ht="15.75">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="A28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="G28" s="9"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -1519,12 +1973,24 @@
       <c r="Z28" s="8"/>
     </row>
     <row r="29" customHeight="true" ht="15.75">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="A29" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="G29" s="9"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -1547,12 +2013,24 @@
       <c r="Z29" s="8"/>
     </row>
     <row r="30" customHeight="true" ht="15.75">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="A30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="G30" s="9"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -1575,12 +2053,24 @@
       <c r="Z30" s="8"/>
     </row>
     <row r="31" customHeight="true" ht="15.75">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="A31" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G31" s="9"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1603,12 +2093,24 @@
       <c r="Z31" s="8"/>
     </row>
     <row r="32" customHeight="true" ht="15.75">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="A32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="G32" s="9"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -1631,12 +2133,24 @@
       <c r="Z32" s="8"/>
     </row>
     <row r="33" customHeight="true" ht="15.75">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="A33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="G33" s="9"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -1659,12 +2173,24 @@
       <c r="Z33" s="8"/>
     </row>
     <row r="34" customHeight="true" ht="15.75">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="G34" s="9"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -1687,12 +2213,24 @@
       <c r="Z34" s="8"/>
     </row>
     <row r="35" customHeight="true" ht="15.75">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="A35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -1715,12 +2253,24 @@
       <c r="Z35" s="8"/>
     </row>
     <row r="36" customHeight="true" ht="15.75">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="A36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -1743,12 +2293,24 @@
       <c r="Z36" s="8"/>
     </row>
     <row r="37" customHeight="true" ht="15.75">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="A37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -1771,12 +2333,24 @@
       <c r="Z37" s="8"/>
     </row>
     <row r="38" customHeight="true" ht="15.75">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="A38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -1799,12 +2373,24 @@
       <c r="Z38" s="8"/>
     </row>
     <row r="39" customHeight="true" ht="15.75">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="A39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -1827,12 +2413,24 @@
       <c r="Z39" s="8"/>
     </row>
     <row r="40" customHeight="true" ht="15.75">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+      <c r="A40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -1855,12 +2453,24 @@
       <c r="Z40" s="8"/>
     </row>
     <row r="41" customHeight="true" ht="15.75">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="A41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -28748,8 +29358,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="H23" activeCell="H23"/>
+    <sheetView workbookViewId="0" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
+      <selection sqref="B23" activeCell="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" customHeight="true" defaultRowHeight="15"/>
@@ -28799,385 +29409,620 @@
       <c r="M1" s="18"/>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="11" t="n">
+      <c r="A2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="12" t="n">
         <v>1000</v>
       </c>
-      <c r="C2" s="11" t="n">
+      <c r="C2" s="12" t="n">
         <v>1640</v>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D2" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="L2" s="1" t="s">
-        <v>54</v>
+      <c r="E2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="M2" s="18"/>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="11" t="n">
+      <c r="A3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="12" t="n">
         <v>1000</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="12" t="n">
         <v>1700</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="L3" s="1" t="s">
-        <v>57</v>
+      <c r="E3" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="M3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="11" t="n">
+      <c r="A4" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="12" t="n">
         <v>1000</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="12" t="n">
         <v>1650</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="L4" s="1" t="s">
-        <v>60</v>
+      <c r="E4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="M4" s="18"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="11" t="n">
+      <c r="A5" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="12" t="n">
         <v>1000</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="12" t="n">
         <v>1535</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="L5" s="1" t="s">
-        <v>63</v>
+      <c r="E5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="M5" s="18"/>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21" t="s">
-        <v>67</v>
+      <c r="E6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="M6" s="18"/>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="11" t="n">
+      <c r="A7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>1000</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="12" t="n">
         <v>1750</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="L7" s="1" t="s">
-        <v>70</v>
+      <c r="E7" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="M7" s="18"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="11" t="n">
+      <c r="A8" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="12" t="n">
         <v>1000</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="12" t="n">
         <v>1670</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="L8" s="1" t="s">
-        <v>70</v>
+      <c r="E8" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="M8" s="18"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="11" t="n">
+      <c r="A9" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="12" t="n">
         <v>800</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="12" t="n">
         <v>1430</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="L9" s="1" t="s">
-        <v>74</v>
+      <c r="E9" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="M9" s="18"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="11" t="n">
+      <c r="A10" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="12" t="n">
         <v>800</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="12" t="n">
         <v>1430</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="L10" s="1" t="s">
-        <v>77</v>
+      <c r="E10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="M10" s="18"/>
     </row>
     <row r="11">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="A11" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C11" s="12" t="n">
+        <v>1478</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
       <c r="M11" s="18"/>
     </row>
     <row r="12">
-      <c r="A12" s="18"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="A12" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="12" t="n">
+        <v>800</v>
+      </c>
+      <c r="C12" s="12" t="n">
+        <v>1216</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="18"/>
     </row>
     <row r="13">
-      <c r="A13" s="18"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+      <c r="A13" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="12" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12" t="s">
+        <v>150</v>
+      </c>
       <c r="M13" s="18"/>
     </row>
     <row r="14">
-      <c r="A14" s="18"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+      <c r="A14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C14" s="12" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D14" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="M14" s="18"/>
     </row>
     <row r="15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="A15" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="12" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="M15" s="18"/>
     </row>
     <row r="16">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="A16" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C16" s="12" t="n">
+        <v>1455</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="A17" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="12" t="n">
+        <v>1455</v>
+      </c>
+      <c r="D17" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18">
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="A18" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="12" t="n">
+        <v>800</v>
+      </c>
+      <c r="C18" s="12" t="n">
+        <v>1430</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="A19" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="12" t="n">
+        <v>800</v>
+      </c>
+      <c r="C19" s="12" t="n">
+        <v>1203</v>
+      </c>
+      <c r="D19" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="A20" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="12" t="n">
+        <v>800</v>
+      </c>
+      <c r="C20" s="12" t="n">
+        <v>1120</v>
+      </c>
+      <c r="D20" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" customHeight="true" ht="15.75">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="A21" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="12" t="n">
+        <v>800</v>
+      </c>
+      <c r="C21" s="12" t="n">
+        <v>1120</v>
+      </c>
+      <c r="D21" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" customHeight="true" ht="15.75">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" customHeight="true" ht="15.75">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" customHeight="true" ht="15.75">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
     </row>
     <row r="25" customHeight="true" ht="15.75">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
     </row>
     <row r="26" customHeight="true" ht="15.75">
       <c r="A26" s="11"/>
@@ -29209,7 +30054,6 @@
     <row r="29" customHeight="true" ht="15.75">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -31543,7 +32387,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="H13" activeCell="H13"/>
+      <selection sqref="E15" activeCell="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" customHeight="true" defaultRowHeight="15"/>
@@ -31563,19 +32407,19 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="true" ht="81.75">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -31592,7 +32436,7 @@
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="B2" s="11" t="n">
         <v>1000</v>
@@ -31604,23 +32448,23 @@
         <v>4</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29" t="s">
-        <v>54</v>
+        <v>170</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="B3" s="11" t="n">
         <v>1000</v>
@@ -31632,19 +32476,19 @@
         <v>8</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>56</v>
+        <v>170</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="G3" s="11"/>
       <c r="L3" s="1" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="B4" s="11" t="n">
         <v>1000</v>
@@ -31656,19 +32500,19 @@
         <v>4</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>59</v>
+        <v>170</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>123</v>
       </c>
       <c r="G4" s="11"/>
       <c r="L4" s="1" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="B5" s="11" t="n">
         <v>1000</v>
@@ -31680,34 +32524,34 @@
         <v>8</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="L5" s="31" t="s">
-        <v>63</v>
+        <v>126</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="L5" s="32" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -31715,12 +32559,12 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="B7" s="11" t="n">
         <v>1000</v>
@@ -31732,19 +32576,19 @@
         <v>4</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="28"/>
-      <c r="L7" s="29" t="s">
-        <v>70</v>
+        <v>170</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="L7" s="28" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="B8" s="11" t="n">
         <v>1000</v>
@@ -31756,41 +32600,83 @@
         <v>4</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>69</v>
+        <v>170</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="G8" s="11"/>
       <c r="L8" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="A9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="11" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>149</v>
+      </c>
       <c r="G9" s="11"/>
+      <c r="L9" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="A10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="G10" s="11"/>
+      <c r="L10" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="A11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="11" t="n">
+        <v>1455</v>
+      </c>
+      <c r="D11" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>160</v>
+      </c>
       <c r="G11" s="11"/>
     </row>
     <row r="12">

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AB" sheetId="1" state="visible" r:id="rId2"/>
@@ -4027,48 +4027,48 @@
     <t xml:space="preserve">0.104, 0.494</t>
   </si>
   <si>
+    <t xml:space="preserve">0.687,-0.317</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.338, 0.076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687,-0.317</t>
+    <t xml:space="preserve">0.252,0.259</t>
   </si>
   <si>
     <t xml:space="preserve">0.254,0.019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252,0.259</t>
+    <t xml:space="preserve">0.765,-0.367</t>
   </si>
   <si>
     <t xml:space="preserve">0.340,-0.025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765,-0.367</t>
-  </si>
-  <si>
     <t xml:space="preserve">-0.078,-0.006</t>
   </si>
   <si>
     <t xml:space="preserve">0.311,0.300</t>
   </si>
   <si>
+    <t xml:space="preserve">0.688,-0.310</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.298,-0.138</t>
   </si>
   <si>
-    <t xml:space="preserve">0.688,-0.310</t>
+    <t xml:space="preserve">0.317,-0.259</t>
   </si>
   <si>
     <t xml:space="preserve">0.312,-0.00</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317,-0.259</t>
+    <t xml:space="preserve">0.317,-0.2597</t>
   </si>
   <si>
     <t xml:space="preserve">0.312,0.001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317,-0.2597</t>
-  </si>
-  <si>
     <t xml:space="preserve">-0.021, -0.369</t>
   </si>
   <si>
@@ -4078,12 +4078,12 @@
     <t xml:space="preserve">0.023,-0.302</t>
   </si>
   <si>
+    <t xml:space="preserve">0.468, -0.238</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.212, 0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468, -0.238</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.040, -0.183</t>
   </si>
   <si>
@@ -4099,12 +4099,12 @@
     <t xml:space="preserve">0.007,-0.210</t>
   </si>
   <si>
+    <t xml:space="preserve">0.059,-0.143</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.062, -0.084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.059,-0.143</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.011,-0.136</t>
   </si>
   <si>
@@ -4117,12 +4117,12 @@
     <t xml:space="preserve">0.063,-0.463</t>
   </si>
   <si>
+    <t xml:space="preserve">0.875, 0.669</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.887, -0.002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875, 0.669</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.176, 0.501</t>
   </si>
   <si>
@@ -4159,12 +4159,12 @@
     <t xml:space="preserve">-0.054,0.155</t>
   </si>
   <si>
+    <t xml:space="preserve">0.155,-0.025</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.030,0.00</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155,-0.025</t>
-  </si>
-  <si>
     <t xml:space="preserve">-0.053,0.156</t>
   </si>
   <si>
@@ -4177,18 +4177,18 @@
     <t xml:space="preserve">0.011, -0.296</t>
   </si>
   <si>
+    <t xml:space="preserve">0.430,-0.512</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.247,0.004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430,-0.512</t>
+    <t xml:space="preserve">0.748,-0.331</t>
   </si>
   <si>
     <t xml:space="preserve">0.304,-0.108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748,-0.331</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.061, -0.274</t>
   </si>
   <si>
@@ -4204,12 +4204,12 @@
     <t xml:space="preserve">0.146,0.389</t>
   </si>
   <si>
+    <t xml:space="preserve">0.482,-0.210</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.200,-0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482,-0.210</t>
-  </si>
-  <si>
     <t xml:space="preserve">-0.029,-0.326</t>
   </si>
   <si>
@@ -4228,12 +4228,12 @@
     <t xml:space="preserve">0.226,-0.557</t>
   </si>
   <si>
+    <t xml:space="preserve">0.470,-0.500</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.227,-0.00</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470,-0.500</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.258,0.617</t>
   </si>
   <si>
@@ -4276,12 +4276,12 @@
     <t xml:space="preserve">0.000,-0.346</t>
   </si>
   <si>
+    <t xml:space="preserve">0.442, 0.636</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.422, 0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442, 0.636</t>
-  </si>
-  <si>
     <t xml:space="preserve">-0.033,-0.145</t>
   </si>
   <si>
@@ -4297,12 +4297,12 @@
     <t xml:space="preserve">0.346,-0.339</t>
   </si>
   <si>
+    <t xml:space="preserve">1.432,-0.478</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.044,-0.000</t>
   </si>
   <si>
-    <t xml:space="preserve">1.432,-0.478</t>
-  </si>
-  <si>
     <t xml:space="preserve">-0.022,-0.303</t>
   </si>
   <si>
@@ -4315,21 +4315,21 @@
     <t xml:space="preserve">0.024, -0.345</t>
   </si>
   <si>
+    <t xml:space="preserve">0.236, 0.068</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.510, 0.629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236, 0.068</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.393,0.168</t>
   </si>
   <si>
+    <t xml:space="preserve">0.993,0.341</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.461,-0.00</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993,0.341</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.160,0.470</t>
   </si>
   <si>
@@ -4345,27 +4345,27 @@
     <t xml:space="preserve">0.296,-0.379</t>
   </si>
   <si>
+    <t xml:space="preserve">910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.554,-0.158</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.603,0.000</t>
   </si>
   <si>
-    <t xml:space="preserve">910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.554,-0.158</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.000, -0.250</t>
   </si>
   <si>
     <t xml:space="preserve">0.372,-0.175</t>
   </si>
   <si>
+    <t xml:space="preserve">0.747,-0.205</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.396, 0.000</t>
   </si>
   <si>
-    <t xml:space="preserve">0.747,-0.205</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.000,-0.533</t>
   </si>
   <si>
@@ -4393,63 +4393,63 @@
     <t xml:space="preserve">-0.006, -0.342</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.000, -0.411</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.865, -0.066</t>
   </si>
   <si>
     <t xml:space="preserve">2.183, 0</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.000, -0.411</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.225, -0.600</t>
   </si>
   <si>
+    <t xml:space="preserve">0.898,0.451</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.291,0.014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898,0.451</t>
+    <t xml:space="preserve">0.403,0.361</t>
   </si>
   <si>
     <t xml:space="preserve">0.294,0.020</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403,0.361</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.075,-0.180</t>
   </si>
   <si>
+    <t xml:space="preserve">0.322, 0.705</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.475, 0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.322, 0.705</t>
+    <t xml:space="preserve">970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598,-0.591</t>
   </si>
   <si>
     <t xml:space="preserve">0.212,-0.104</t>
   </si>
   <si>
-    <t xml:space="preserve">970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598,-0.591</t>
+    <t xml:space="preserve">0.551,-0.530</t>
   </si>
   <si>
     <t xml:space="preserve">0.335,0.034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551,-0.530</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.652,-0.530</t>
   </si>
   <si>
+    <t xml:space="preserve">0.469,-0.565</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.187,-0.083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.469,-0.565</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.105,0.417</t>
   </si>
   <si>
@@ -4483,12 +4483,12 @@
     <t xml:space="preserve">0.269,0.614</t>
   </si>
   <si>
+    <t xml:space="preserve">2.154, -0.449</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.521,0.00</t>
   </si>
   <si>
-    <t xml:space="preserve">2.154, -0.449</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.324, -0.583</t>
   </si>
   <si>
@@ -4513,13 +4513,16 @@
     <t xml:space="preserve">0.456,-0.524</t>
   </si>
   <si>
+    <t xml:space="preserve">2.850, -0.380</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.868, 0</t>
   </si>
   <si>
     <t xml:space="preserve">0.416, -0.001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.850, -0.380</t>
+    <t xml:space="preserve">0.038, -0.171</t>
   </si>
   <si>
     <t xml:space="preserve">2.817, -0.200</t>
@@ -4528,9 +4531,6 @@
     <t xml:space="preserve">2.390, 0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.038, -0.171</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.024,-0.415</t>
   </si>
   <si>
@@ -4540,57 +4540,57 @@
     <t xml:space="preserve">0.481,-0.547</t>
   </si>
   <si>
+    <t xml:space="preserve">1.001,0.574</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.041,0.050</t>
   </si>
   <si>
-    <t xml:space="preserve">1.001,0.574</t>
+    <t xml:space="preserve">2.866, -0.723</t>
   </si>
   <si>
     <t xml:space="preserve">2.411, 0</t>
   </si>
   <si>
-    <t xml:space="preserve">2.866, -0.723</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.387,-0.00</t>
   </si>
   <si>
+    <t xml:space="preserve">1.002,0.636</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.417,-0.00</t>
   </si>
   <si>
-    <t xml:space="preserve">1.002,0.636</t>
+    <t xml:space="preserve">1.004, 0.573</t>
   </si>
   <si>
     <t xml:space="preserve">0.387, 0</t>
   </si>
   <si>
-    <t xml:space="preserve">1.004, 0.573</t>
+    <t xml:space="preserve">1.028, 0.682</t>
   </si>
   <si>
     <t xml:space="preserve">0.417, 0</t>
   </si>
   <si>
-    <t xml:space="preserve">1.028, 0.682</t>
+    <t xml:space="preserve">0.878,-0.593</t>
   </si>
   <si>
     <t xml:space="preserve">0.263, -0.001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878,-0.593</t>
+    <t xml:space="preserve">0.867,0.525</t>
   </si>
   <si>
     <t xml:space="preserve">0.383,0.003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867,0.525</t>
+    <t xml:space="preserve">0.434,-0.373</t>
   </si>
   <si>
     <t xml:space="preserve">0.410, 0.041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434,-0.373</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.217,-0.333</t>
   </si>
   <si>
@@ -4600,12 +4600,12 @@
     <t xml:space="preserve">0.578,0.255</t>
   </si>
   <si>
+    <t xml:space="preserve">0.484,-0.517</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.434,-0.047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.484,-0.517</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.243,-0.0</t>
   </si>
   <si>
@@ -4618,28 +4618,28 @@
     <t xml:space="preserve">0.057, -0.400</t>
   </si>
   <si>
+    <t xml:space="preserve">sim_AP_f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400, -0.281</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.714, -0.006</t>
   </si>
   <si>
-    <t xml:space="preserve">sim_AP_f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400, -0.281</t>
+    <t xml:space="preserve">0.422,0.363</t>
   </si>
   <si>
     <t xml:space="preserve">0.250,0.032</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422,0.363</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.322,0.631</t>
   </si>
   <si>
+    <t xml:space="preserve">0.387,-0.420</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.579,-0.160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387,-0.420</t>
   </si>
   <si>
     <t xml:space="preserve">sim_APDS</t>
@@ -5063,10 +5063,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F892"/>
+  <dimension ref="A1:I892"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A578" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E604" activeCellId="0" sqref="E604"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A583" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A602" activeCellId="0" sqref="A602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17073,6 +17073,9 @@
       <c r="F600" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G600" s="1"/>
+      <c r="H600" s="1"/>
+      <c r="I600" s="1"/>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="s">
@@ -20286,8 +20289,8 @@
   </sheetPr>
   <dimension ref="A1:F892"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A574" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A600" activeCellId="0" sqref="A600"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A577" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E603" activeCellId="0" sqref="E603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32277,7 +32280,7 @@
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>7</v>
@@ -40725,8 +40728,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A201" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F232" activeCellId="0" sqref="F232"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A210" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E236" activeCellId="0" sqref="E236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45648,9 +45651,6 @@
       <c r="F240" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="I240" s="1" t="s">
-        <v>1333</v>
-      </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
@@ -45669,10 +45669,10 @@
         <v>1161</v>
       </c>
       <c r="F241" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I241" s="1" t="s">
         <v>1334</v>
-      </c>
-      <c r="I241" s="1" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45692,10 +45692,10 @@
         <v>1161</v>
       </c>
       <c r="F242" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I242" s="1" t="s">
         <v>1336</v>
-      </c>
-      <c r="I242" s="1" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45715,6 +45715,9 @@
         <v>1161</v>
       </c>
       <c r="F243" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I243" s="1" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -45737,9 +45740,6 @@
       <c r="F244" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="I244" s="1" t="s">
-        <v>1340</v>
-      </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
@@ -45758,10 +45758,10 @@
         <v>1161</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45781,10 +45781,10 @@
         <v>1161</v>
       </c>
       <c r="F246" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I246" s="1" t="s">
         <v>1342</v>
-      </c>
-      <c r="I246" s="1" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45804,10 +45804,10 @@
         <v>1161</v>
       </c>
       <c r="F247" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I247" s="1" t="s">
         <v>1342</v>
-      </c>
-      <c r="I247" s="1" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45827,10 +45827,10 @@
         <v>1161</v>
       </c>
       <c r="F248" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I248" s="1" t="s">
         <v>1342</v>
-      </c>
-      <c r="I248" s="1" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45850,10 +45850,10 @@
         <v>1161</v>
       </c>
       <c r="F249" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I249" s="1" t="s">
         <v>1344</v>
-      </c>
-      <c r="I249" s="1" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45873,6 +45873,9 @@
         <v>1161</v>
       </c>
       <c r="F250" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I250" s="1" t="s">
         <v>1346</v>
       </c>
     </row>
@@ -45955,9 +45958,6 @@
       <c r="F254" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="I254" s="1" t="s">
-        <v>1350</v>
-      </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
@@ -45976,6 +45976,9 @@
         <v>1161</v>
       </c>
       <c r="F255" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I255" s="1" t="s">
         <v>1351</v>
       </c>
     </row>
@@ -46098,9 +46101,6 @@
       <c r="F261" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="G261" s="1" t="s">
-        <v>1357</v>
-      </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
@@ -46119,10 +46119,10 @@
         <v>1161</v>
       </c>
       <c r="F262" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G262" s="1" t="s">
         <v>1358</v>
-      </c>
-      <c r="G262" s="1" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46142,6 +46142,9 @@
         <v>1161</v>
       </c>
       <c r="F263" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G263" s="1" t="s">
         <v>1358</v>
       </c>
     </row>
@@ -46304,9 +46307,6 @@
       <c r="F271" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="I271" s="1" t="s">
-        <v>1363</v>
-      </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
@@ -46325,6 +46325,9 @@
         <v>1161</v>
       </c>
       <c r="F272" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I272" s="1" t="s">
         <v>1364</v>
       </c>
     </row>
@@ -46647,9 +46650,6 @@
       <c r="F288" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="I288" s="1" t="s">
-        <v>1377</v>
-      </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
@@ -46668,6 +46668,9 @@
         <v>1161</v>
       </c>
       <c r="F289" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I289" s="1" t="s">
         <v>1378</v>
       </c>
     </row>
@@ -46850,9 +46853,6 @@
       <c r="F298" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="I298" s="1" t="s">
-        <v>1383</v>
-      </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
@@ -46871,10 +46871,10 @@
         <v>1161</v>
       </c>
       <c r="F299" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I299" s="1" t="s">
         <v>1384</v>
-      </c>
-      <c r="I299" s="1" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46894,6 +46894,9 @@
         <v>1161</v>
       </c>
       <c r="F300" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="I300" s="1" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -47276,9 +47279,6 @@
       <c r="F319" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="I319" s="1" t="s">
-        <v>1392</v>
-      </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
@@ -47297,6 +47297,9 @@
         <v>1161</v>
       </c>
       <c r="F320" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I320" s="1" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -47439,9 +47442,6 @@
       <c r="F327" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="I327" s="1" t="s">
-        <v>1400</v>
-      </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
@@ -47460,6 +47460,9 @@
         <v>1161</v>
       </c>
       <c r="F328" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I328" s="1" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -47842,9 +47845,6 @@
       <c r="F347" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="I347" s="1" t="s">
-        <v>1416</v>
-      </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
@@ -47863,6 +47863,9 @@
         <v>1161</v>
       </c>
       <c r="F348" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I348" s="1" t="s">
         <v>1417</v>
       </c>
     </row>
@@ -48225,9 +48228,6 @@
       <c r="F366" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="I366" s="1" t="s">
-        <v>1423</v>
-      </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
@@ -48246,6 +48246,9 @@
         <v>1161</v>
       </c>
       <c r="F367" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I367" s="1" t="s">
         <v>1424</v>
       </c>
     </row>
@@ -48348,9 +48351,6 @@
       <c r="F372" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="G372" s="1" t="s">
-        <v>1429</v>
-      </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
@@ -48369,6 +48369,9 @@
         <v>1161</v>
       </c>
       <c r="F373" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G373" s="1" t="s">
         <v>1430</v>
       </c>
     </row>
@@ -48391,9 +48394,6 @@
       <c r="F374" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="I374" s="1" t="s">
-        <v>1432</v>
-      </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
@@ -48412,6 +48412,9 @@
         <v>1161</v>
       </c>
       <c r="F375" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I375" s="1" t="s">
         <v>1433</v>
       </c>
     </row>
@@ -48514,9 +48517,6 @@
       <c r="F380" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="I380" s="1" t="s">
-        <v>1439</v>
-      </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
@@ -48526,7 +48526,7 @@
         <v>9999</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>3</v>
@@ -48535,6 +48535,9 @@
         <v>1161</v>
       </c>
       <c r="F381" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I381" s="1" t="s">
         <v>1441</v>
       </c>
     </row>
@@ -48577,9 +48580,6 @@
       <c r="F383" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="I383" s="1" t="s">
-        <v>1444</v>
-      </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
@@ -48598,6 +48598,9 @@
         <v>1161</v>
       </c>
       <c r="F384" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="I384" s="1" t="s">
         <v>1445</v>
       </c>
     </row>
@@ -48820,12 +48823,6 @@
       <c r="F395" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="G395" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="I395" s="1" t="s">
-        <v>1456</v>
-      </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
@@ -48844,6 +48841,12 @@
         <v>1161</v>
       </c>
       <c r="F396" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="I396" s="1" t="s">
         <v>1457</v>
       </c>
     </row>
@@ -48866,9 +48869,6 @@
       <c r="F397" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="I397" s="1" t="s">
-        <v>1459</v>
-      </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
@@ -48887,10 +48887,10 @@
         <v>1161</v>
       </c>
       <c r="F398" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="I398" s="1" t="s">
         <v>1460</v>
-      </c>
-      <c r="I398" s="1" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48910,6 +48910,9 @@
         <v>1161</v>
       </c>
       <c r="F399" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I399" s="1" t="s">
         <v>1462</v>
       </c>
     </row>
@@ -48932,9 +48935,6 @@
       <c r="F400" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="I400" s="1" t="s">
-        <v>1464</v>
-      </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
@@ -48953,10 +48953,10 @@
         <v>1161</v>
       </c>
       <c r="F401" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I401" s="1" t="s">
         <v>1465</v>
-      </c>
-      <c r="I401" s="1" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48978,6 +48978,9 @@
       <c r="F402" s="1" t="s">
         <v>1015</v>
       </c>
+      <c r="I402" s="1" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
@@ -48998,9 +49001,6 @@
       <c r="F403" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="I403" s="1" t="s">
-        <v>1466</v>
-      </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
@@ -49010,7 +49010,7 @@
         <v>9999</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>174</v>
@@ -49019,10 +49019,10 @@
         <v>1161</v>
       </c>
       <c r="F404" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I404" s="1" t="s">
         <v>1468</v>
-      </c>
-      <c r="I404" s="1" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49033,7 +49033,7 @@
         <v>1</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>48</v>
@@ -49042,10 +49042,10 @@
         <v>1161</v>
       </c>
       <c r="F405" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I405" s="1" t="s">
         <v>1470</v>
-      </c>
-      <c r="I405" s="1" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49056,7 +49056,7 @@
         <v>1</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>174</v>
@@ -49068,7 +49068,7 @@
         <v>1471</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49079,7 +49079,7 @@
         <v>9999</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>174</v>
@@ -49088,6 +49088,9 @@
         <v>1161</v>
       </c>
       <c r="F407" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I407" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
@@ -49490,9 +49493,6 @@
       <c r="F427" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="I427" s="1" t="s">
-        <v>1485</v>
-      </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
@@ -49511,6 +49511,9 @@
         <v>1161</v>
       </c>
       <c r="F428" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I428" s="1" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -49673,12 +49676,6 @@
       <c r="F436" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="H436" s="1" t="s">
-        <v>1495</v>
-      </c>
-      <c r="I436" s="1" t="s">
-        <v>1496</v>
-      </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2" t="s">
@@ -49697,13 +49694,13 @@
         <v>1161</v>
       </c>
       <c r="F437" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H437" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="I437" s="1" t="s">
         <v>1497</v>
-      </c>
-      <c r="G437" s="1" t="s">
-        <v>1498</v>
-      </c>
-      <c r="I437" s="1" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49723,6 +49720,12 @@
         <v>1161</v>
       </c>
       <c r="F438" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="I438" s="1" t="s">
         <v>1500</v>
       </c>
     </row>
@@ -49825,9 +49828,6 @@
       <c r="F443" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="I443" s="1" t="s">
-        <v>1504</v>
-      </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
@@ -49846,10 +49846,10 @@
         <v>1161</v>
       </c>
       <c r="F444" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I444" s="1" t="s">
         <v>1505</v>
-      </c>
-      <c r="I444" s="1" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49869,10 +49869,10 @@
         <v>1161</v>
       </c>
       <c r="F445" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="I445" s="1" t="s">
         <v>1507</v>
-      </c>
-      <c r="I445" s="1" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49918,7 +49918,7 @@
         <v>907</v>
       </c>
       <c r="I447" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49938,10 +49938,10 @@
         <v>1161</v>
       </c>
       <c r="F448" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I448" s="1" t="s">
         <v>1510</v>
-      </c>
-      <c r="I448" s="1" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49964,7 +49964,7 @@
         <v>907</v>
       </c>
       <c r="I449" s="1" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49984,10 +49984,10 @@
         <v>1161</v>
       </c>
       <c r="F450" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I450" s="1" t="s">
         <v>1512</v>
-      </c>
-      <c r="I450" s="1" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50007,10 +50007,10 @@
         <v>1161</v>
       </c>
       <c r="F451" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I451" s="1" t="s">
         <v>1514</v>
-      </c>
-      <c r="I451" s="1" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50030,10 +50030,10 @@
         <v>1161</v>
       </c>
       <c r="F452" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I452" s="1" t="s">
         <v>1516</v>
-      </c>
-      <c r="I452" s="1" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50053,10 +50053,10 @@
         <v>1161</v>
       </c>
       <c r="F453" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="I453" s="1" t="s">
         <v>1518</v>
-      </c>
-      <c r="I453" s="1" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50076,6 +50076,9 @@
         <v>1161</v>
       </c>
       <c r="F454" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="I454" s="1" t="s">
         <v>1520</v>
       </c>
     </row>
@@ -50158,9 +50161,6 @@
       <c r="F458" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="I458" s="1" t="s">
-        <v>1524</v>
-      </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
@@ -50179,6 +50179,9 @@
         <v>1161</v>
       </c>
       <c r="F459" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I459" s="1" t="s">
         <v>1525</v>
       </c>
     </row>
@@ -50201,9 +50204,6 @@
       <c r="F460" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="I460" s="1" t="s">
-        <v>1019</v>
-      </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
@@ -50224,6 +50224,9 @@
       <c r="F461" s="1" t="s">
         <v>1018</v>
       </c>
+      <c r="I461" s="1" t="s">
+        <v>1019</v>
+      </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
@@ -50304,9 +50307,6 @@
       <c r="F465" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="I465" s="1" t="s">
-        <v>1526</v>
-      </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
@@ -50327,6 +50327,9 @@
       <c r="F466" s="1" t="s">
         <v>1281</v>
       </c>
+      <c r="I466" s="1" t="s">
+        <v>1526</v>
+      </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
@@ -50387,9 +50390,6 @@
       <c r="F469" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="I469" s="1" t="s">
-        <v>1068</v>
-      </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
@@ -50411,7 +50411,7 @@
         <v>1067</v>
       </c>
       <c r="I470" s="1" t="s">
-        <v>1530</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50428,13 +50428,13 @@
         <v>220</v>
       </c>
       <c r="E471" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F471" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F471" s="1" t="s">
+      <c r="I471" s="1" t="s">
         <v>1532</v>
-      </c>
-      <c r="I471" s="1" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50451,9 +50451,12 @@
         <v>220</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F472" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I472" s="1" t="s">
         <v>1534</v>
       </c>
     </row>
@@ -50471,13 +50474,10 @@
         <v>48</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F473" s="1" t="s">
         <v>1535</v>
-      </c>
-      <c r="I473" s="1" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50494,9 +50494,12 @@
         <v>220</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F474" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I474" s="1" t="s">
         <v>1537</v>
       </c>
     </row>
@@ -50626,10 +50629,10 @@
         <v>1538</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>1468</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50649,10 +50652,10 @@
         <v>1538</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>1470</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50675,7 +50678,7 @@
         <v>1471</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50695,10 +50698,10 @@
         <v>1538</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>1473</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50718,10 +50721,10 @@
         <v>1538</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>1338</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50761,7 +50764,7 @@
         <v>1538</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>1340</v>
@@ -50784,10 +50787,10 @@
         <v>1538</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>1342</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50807,10 +50810,10 @@
         <v>1538</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>1342</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50830,10 +50833,10 @@
         <v>1538</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>1342</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50853,10 +50856,10 @@
         <v>1538</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>1344</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50879,7 +50882,7 @@
         <v>1539</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50899,10 +50902,10 @@
         <v>1538</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>1460</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51025,10 +51028,10 @@
         <v>1538</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>1417</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51655,10 +51658,10 @@
         <v>1538</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>1505</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51747,10 +51750,10 @@
         <v>1538</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>1510</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51816,7 +51819,7 @@
         <v>1538</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>1563</v>
@@ -51859,10 +51862,10 @@
         <v>1538</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>1512</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51882,10 +51885,10 @@
         <v>1538</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>1514</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54030,10 +54033,10 @@
         <v>1538</v>
       </c>
       <c r="F162" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I162" s="1" t="s">
         <v>1441</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55456,8 +55459,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G133" activeCellId="0" sqref="G133"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D126" activeCellId="0" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -55526,10 +55529,10 @@
         <v>1633</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>1465</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55549,10 +55552,10 @@
         <v>1633</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>1518</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55572,10 +55575,10 @@
         <v>1633</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>1525</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55595,10 +55598,10 @@
         <v>1633</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>1468</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55618,10 +55621,10 @@
         <v>1633</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>1470</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55644,7 +55647,7 @@
         <v>1471</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55664,10 +55667,10 @@
         <v>1633</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>1473</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57620,10 +57623,10 @@
         <v>1633</v>
       </c>
       <c r="F99" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I99" s="1" t="s">
         <v>1441</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AB" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="AP" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="APDS" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="LASER" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="ALL_TANKS" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16562" uniqueCount="1893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16583" uniqueCount="1894">
   <si>
     <t xml:space="preserve">uk_centurion_mk_5_avre_era</t>
   </si>
@@ -5706,6 +5707,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.533, 0.730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all_tanks</t>
   </si>
 </sst>
 </file>
@@ -5873,11 +5877,11 @@
   </sheetPr>
   <dimension ref="A1:I789"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A659" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A716" activeCellId="0" sqref="A716"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A716" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G764" activeCellId="0" sqref="G764"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.65"/>
   </cols>
@@ -21639,7 +21643,7 @@
       <selection pane="topLeft" activeCell="A716" activeCellId="0" sqref="A716"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.65"/>
   </cols>
@@ -38094,10 +38098,10 @@
   <dimension ref="A1:I892"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A184" activeCellId="0" sqref="A184"/>
+      <selection pane="topLeft" activeCell="D185" activeCellId="0" sqref="D185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.65"/>
   </cols>
@@ -61821,7 +61825,7 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A185" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A185" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A231" activeCellId="0" sqref="A231"/>
     </sheetView>
   </sheetViews>
@@ -72260,4 +72264,182 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>984</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>986</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -3064,7 +3064,7 @@
     <t xml:space="preserve">it_leopard_bofors</t>
   </si>
   <si>
-    <t xml:space="preserve">it_btr_80a_hungary </t>
+    <t xml:space="preserve">it_btr_80a_hungary</t>
   </si>
   <si>
     <t xml:space="preserve">sw_k9_vidar</t>
@@ -6582,11 +6582,11 @@
   </sheetPr>
   <dimension ref="A1:I843"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A784" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G834" activeCellId="0" sqref="G834"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A796" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A821" activeCellId="0" sqref="A821"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.65"/>
   </cols>
@@ -23419,7 +23419,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="1" sqref="A821 A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24132,10 +24132,10 @@
   <dimension ref="A1:I902"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A799" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E846" activeCellId="0" sqref="E846"/>
+      <selection pane="topLeft" activeCell="A821" activeCellId="0" sqref="A821"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.65"/>
   </cols>
@@ -41276,10 +41276,10 @@
   <dimension ref="A1:I892"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A162" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E214" activeCellId="0" sqref="E214"/>
+      <selection pane="topLeft" activeCell="A207" activeCellId="1" sqref="A821 A207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.65"/>
   </cols>
@@ -49408,7 +49408,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F53" activeCellId="0" sqref="F53"/>
+      <selection pane="topLeft" activeCell="F53" activeCellId="1" sqref="A821 F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50465,7 +50465,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+      <selection pane="topLeft" activeCell="C40" activeCellId="1" sqref="A821 C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -55943,7 +55943,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A459" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O510" activeCellId="0" sqref="O510"/>
+      <selection pane="topLeft" activeCell="O510" activeCellId="1" sqref="A821 O510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -66746,7 +66746,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A267" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B299" activeCellId="0" sqref="B299"/>
+      <selection pane="topLeft" activeCell="B299" activeCellId="1" sqref="A821 B299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -73364,7 +73364,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="A821 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -78124,10 +78124,10 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="1" sqref="A821 C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AB" sheetId="1" state="visible" r:id="rId2"/>
@@ -3064,7 +3064,7 @@
     <t xml:space="preserve">it_leopard_bofors</t>
   </si>
   <si>
-    <t xml:space="preserve">it_btr_80a_hungary </t>
+    <t xml:space="preserve">it_btr_80a_hungary</t>
   </si>
   <si>
     <t xml:space="preserve">sw_k9_vidar</t>
@@ -6284,11 +6284,11 @@
   </sheetPr>
   <dimension ref="A1:I853"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A820" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B872" activeCellId="0" sqref="B872"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A811" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A822" activeCellId="0" sqref="A822"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.65"/>
   </cols>
@@ -24092,11 +24092,11 @@
   </sheetPr>
   <dimension ref="A1:I902"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A821" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A856" activeCellId="0" sqref="A856"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A821" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G847" activeCellId="0" sqref="G847"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.65"/>
   </cols>
@@ -41408,7 +41408,7 @@
       <selection pane="topLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.65"/>
   </cols>
@@ -75875,7 +75875,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
